--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5548000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5879000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5604000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5685000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5281000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5795000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5596000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5648000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5088000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5949000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6512000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7141000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6505000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7320000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>969000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1035000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>957000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1570000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1086000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1196000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1001000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1256000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1032000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1126000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>957000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1075000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4579000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4196000</v>
+      </c>
+      <c r="F10" s="3">
         <v>4569000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4685000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4324000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4225000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4510000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4452000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4087000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4693000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5480000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6015000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5548000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6245000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="F12" s="3">
         <v>4990000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1160000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1057000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1950000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>939000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1192000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>937000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1150000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>789000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>864000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>931000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1208000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -996,26 +1035,32 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3146000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4786000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7077000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3255000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3044000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4651000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2973000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3368000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2935000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3658000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2887000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2738000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3275000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2430000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2237000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1144000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2623000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2280000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2153000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2291000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3812000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4254000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3767000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4045000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="F20" s="3">
         <v>222000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>228000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>367000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>129000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>305000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>72000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>170000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>132000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>150000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>130000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>111000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>140000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2593000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2494000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-904000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3006000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2963000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1631000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3286000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2708000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2680000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2820000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4259000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4682000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4172000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4477000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F22" s="3">
         <v>250000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>248000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>254000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>257000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>264000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>266000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>290000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>297000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>291000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>269000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>261000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>265000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2003000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1901000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2410000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2350000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1016000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2664000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2086000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2033000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2126000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3671000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4115000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3617000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3920000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-788000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-333000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>535000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>382000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>999000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>565000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>277000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>494000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>470000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>959000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1046000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>918000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>821000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2689000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1875000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1968000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>17000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2099000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1809000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1539000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1656000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2712000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3069000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2699000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3099000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1880000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1975000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>17000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2097000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1807000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1538000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1627000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2718000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3073000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2702000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3108000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1589,26 +1710,26 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>-14000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>10000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-5492000</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-5492000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1051000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-222000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-228000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-367000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-129000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-305000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-72000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-170000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-132000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-150000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-130000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-111000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-140000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1880000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1975000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2097000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1817000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1538000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2718000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3073000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2702000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3108000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1880000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1975000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2097000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1817000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1538000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2718000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3073000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2702000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3108000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,404 +2139,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10051000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11631000</v>
+      </c>
+      <c r="F41" s="3">
         <v>9474000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16927000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17940000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14569000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13234000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7643000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7588000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11508000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8712000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>10285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8229000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10734000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12721000</v>
+      </c>
+      <c r="F42" s="3">
         <v>13382000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>15943000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>10977000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>12149000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13897000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>12683000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>16355000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17922000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16879000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12384000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3830000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3747000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3907000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3582000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3315000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3396000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3283000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3327000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3465000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3541000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3775000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3851000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4122000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4478000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4034000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4514000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>922000</v>
+      </c>
+      <c r="F44" s="3">
         <v>882000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>884000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>898000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>814000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>816000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>859000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>885000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>801000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1144000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1408000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1474000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1587000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1308000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2264000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1939000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1606000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2171000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2411000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1661000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1664000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1610000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1801000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3960000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26950000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30296000</v>
+      </c>
+      <c r="F46" s="3">
         <v>28361000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>33727000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>34024000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35836000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>34918000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>32728000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30258000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>31823000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>35317000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>28592000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21424000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>19588000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2195000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3051000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2221000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1423000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2378000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5739000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8104000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11194000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>12996000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>15517000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>19902000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>20495000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4564000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5170000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5037000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4753000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4571000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4006000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3791000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3659000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3415000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3295000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3100000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3012000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2922000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2865000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17619000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17903000</v>
+      </c>
+      <c r="F49" s="3">
         <v>18981000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19269000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>19555000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>19855000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>20431000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>20620000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>20962000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>21259000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9514000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9723000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>9933000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10143000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7079000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6770000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4572000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2410000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2466000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2555000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2787000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2609000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2642000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2712000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3735000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3419000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3520000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4309000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59741000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>61627000</v>
+      </c>
+      <c r="F54" s="3">
         <v>59146000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>63210000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>62837000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>63675000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>64305000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>65355000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65381000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>70283000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>64662000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>60263000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>57701000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>56977000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>713000</v>
+      </c>
+      <c r="F57" s="3">
         <v>632000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>617000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>577000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>790000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>580000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>623000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>711000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>814000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>696000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>819000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>944000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1206000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2498000</v>
+        <v>1999000</v>
       </c>
       <c r="E58" s="3">
-        <v>1999000</v>
+        <v>2499000</v>
       </c>
       <c r="F58" s="3">
         <v>2498000</v>
       </c>
       <c r="G58" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2747000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2998000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2497000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2747000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1747000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6290000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6547000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6437000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6345000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6322000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7067000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6789000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7291000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7462000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8074000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7154000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7673000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7338000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8302000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8879000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9759000</v>
+      </c>
+      <c r="F60" s="3">
         <v>9567000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8961000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9397000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10605000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10116000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10912000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10670000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11635000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9597000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8492000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8282000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9218000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22098000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22094000</v>
+      </c>
+      <c r="F61" s="3">
         <v>22090000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>24084000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24080000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>24574000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24570000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26062000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>26557000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>30795000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>27515000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>26296000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>26321000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>26346000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6585000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7124000</v>
+      </c>
+      <c r="F62" s="3">
         <v>6753000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7414000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>7269000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6962000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6612000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6647000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7503000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7352000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2296000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2384000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2181000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2050000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37674000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39102000</v>
+      </c>
+      <c r="F66" s="3">
         <v>38542000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>40594000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>40886000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>41444000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>43683000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>44790000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>49841000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>39817000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>37586000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>37260000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>38090000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18709000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19388000</v>
+      </c>
+      <c r="F72" s="3">
         <v>17616000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>19829000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>19326000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>19024000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20706000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>19825000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19196000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>19012000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>23689000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>21823000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>19564000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>18154000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22067000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22525000</v>
+      </c>
+      <c r="F76" s="3">
         <v>20604000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>22616000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21951000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21387000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>22861000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21672000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20591000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20442000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24845000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22677000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>20441000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18887000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1880000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1975000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2097000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1817000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1538000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2718000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3073000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2702000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3108000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F83" s="3">
         <v>347000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>348000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>359000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>358000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>358000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>356000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>357000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>397000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>297000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>298000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>294000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>292000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2899000</v>
       </c>
-      <c r="E89" s="3">
-        <v>2221000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1444000</v>
-      </c>
       <c r="G89" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="I89" s="3">
         <v>2345000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2212000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1573000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2270000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2753000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2694000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3526000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2925000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3539000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-185000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-237000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-248000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-167000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-297000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-212000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-220000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-129000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-123000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-118000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-338000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>431000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-111000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2735000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2025000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>5241000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4354000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>307000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-874000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-801000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-804000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-800000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-817000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-736000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-742000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-740000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-753000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-682000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-682000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-680000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-687000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-619000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2611000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-896000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3347000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2170000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-880000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-55000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-39000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-71000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>27000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>68000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-96000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1580000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2157000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3371000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1335000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5591000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>55000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2796000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2056000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5143000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5548000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5879000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5604000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5685000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5281000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5795000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5596000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5648000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5088000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5949000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6512000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7141000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6505000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7320000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E9" s="3">
         <v>969000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1683000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1035000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>957000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1570000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1086000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1196000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1001000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1256000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1032000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1126000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>957000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1075000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4079000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4579000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4196000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4569000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4685000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4324000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4225000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4510000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4452000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4087000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4693000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5480000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6015000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5548000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6245000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5823000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1101000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1899000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4990000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1160000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1057000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1950000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>939000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1192000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>937000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1150000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>789000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>864000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>931000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1208000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1041,8 +1061,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8126000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3146000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4786000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7077000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3255000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3044000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4651000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2973000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3368000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2935000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3658000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2887000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2738000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3275000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2983000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2402000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1093000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2430000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2237000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1144000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2623000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2280000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2153000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2291000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3812000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4254000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3767000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4045000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-158000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1051000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>222000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>228000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>367000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>129000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>305000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>72000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>170000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>132000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>150000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>130000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>140000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2384000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2593000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2494000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-904000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3006000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2963000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1631000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3286000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2708000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2680000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2820000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4259000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4682000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4172000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4477000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E22" s="3">
         <v>241000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>243000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>250000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>248000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>254000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>257000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>264000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>266000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>290000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>297000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>291000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>269000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>261000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>265000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2973000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2003000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1901000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2410000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2350000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1016000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2664000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2086000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2033000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2126000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3671000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4115000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3617000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3920000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E24" s="3">
         <v>465000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-788000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-333000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>535000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>382000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>999000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>565000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>277000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>494000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>470000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>959000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1046000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>918000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>821000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-3346000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1538000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2689000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1875000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1968000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2099000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1809000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1539000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1656000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2712000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3069000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2699000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3099000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3339000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1551000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2696000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1880000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1975000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2097000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1807000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1538000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1627000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2718000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3073000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2702000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3108000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1716,23 +1777,23 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>-14000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>10000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E32" s="3">
         <v>158000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-222000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-228000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-367000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-129000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-305000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-72000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-170000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-132000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-150000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-130000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-140000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3339000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1551000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2696000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1880000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1975000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2097000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1817000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1538000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2718000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3073000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2702000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3108000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3339000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1551000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2696000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1880000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1975000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2097000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1817000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1538000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2718000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3073000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2702000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3108000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6746000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10051000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11631000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9474000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16927000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17940000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14569000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13234000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7643000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7588000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11508000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8712000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10285000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8229000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12168000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10734000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12721000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13382000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15943000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10977000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12149000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13897000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12683000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16355000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17922000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16879000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12384000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3830000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3747000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3194000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3907000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3582000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3315000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3396000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3283000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3327000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3465000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3541000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3775000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3851000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4122000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4478000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4034000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4514000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="E44" s="3">
         <v>986000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>922000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>882000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>884000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>898000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>814000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>816000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>859000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>885000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>801000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1144000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1408000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1474000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1587000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1272000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1440000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1308000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2264000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1939000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1606000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2171000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2411000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1661000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1664000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1610000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1801000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3960000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24643000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26950000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30296000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28361000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33727000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34024000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35836000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34918000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32728000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30258000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31823000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35317000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28592000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21424000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19588000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2276000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3529000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1488000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2195000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3051000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2221000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1423000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2378000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5739000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8104000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11194000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12996000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15517000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19902000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20495000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4653000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4564000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5170000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5037000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4753000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4571000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4006000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3791000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3659000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3415000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3295000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3012000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2922000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2865000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17342000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17619000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17903000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18981000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19269000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19555000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19855000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20431000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20620000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20962000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21259000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9514000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9723000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9933000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10143000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7020000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7079000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6770000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4572000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2410000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2466000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2555000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2787000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2609000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2642000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2712000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3735000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3419000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3520000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4309000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55934000</v>
+      </c>
+      <c r="E54" s="3">
         <v>59741000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61627000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59146000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63210000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62837000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63675000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64305000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65355000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65381000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70283000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64662000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60263000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57701000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56977000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,97 +3011,101 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E57" s="3">
         <v>590000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>713000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>632000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>617000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>577000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>790000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>580000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>623000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>711000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>814000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>696000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>819000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>944000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1206000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1999000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2499000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2498000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1999000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2498000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2748000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2747000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2998000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2497000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2747000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1747000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -2979,210 +3113,225 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7033000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6290000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6547000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6437000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6345000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6322000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7067000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6789000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7291000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7462000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8074000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7154000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7673000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7338000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8302000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10564000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8879000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9759000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9567000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8961000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9397000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10605000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10116000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10912000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10670000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11635000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9597000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8492000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8282000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9218000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21103000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22098000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22094000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22090000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24084000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24080000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24574000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24570000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26062000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26557000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30795000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27515000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26296000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26321000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26346000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6125000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6585000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7124000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6753000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7414000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7269000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6962000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6612000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6647000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7503000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7352000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2296000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2384000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2181000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2050000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37907000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37674000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39102000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38542000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40594000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40886000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42288000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41444000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43683000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44790000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49841000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39817000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37586000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37260000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38090000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14445000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18709000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19388000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17616000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19829000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19326000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19024000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20706000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19825000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19196000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19012000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23689000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21823000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19564000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18154000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18027000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22067000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22525000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20604000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22616000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21951000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21387000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22861000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21672000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20591000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20442000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24845000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22677000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20441000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18887000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3339000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1551000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2696000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1880000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1975000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2097000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1817000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1538000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2718000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3073000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2702000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3108000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,49 +4234,52 @@
         <v>349000</v>
       </c>
       <c r="E83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="F83" s="3">
         <v>350000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>347000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>348000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>359000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>358000</v>
       </c>
       <c r="J83" s="3">
         <v>358000</v>
       </c>
       <c r="K83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="L83" s="3">
         <v>356000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>357000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>297000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>298000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>294000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>292000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2566000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1436000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2580000</v>
       </c>
-      <c r="F89" s="3">
-        <v>2899000</v>
-      </c>
       <c r="G89" s="3">
-        <v>2088000</v>
+        <v>2645000</v>
       </c>
       <c r="H89" s="3">
+        <v>2342000</v>
+      </c>
+      <c r="I89" s="3">
         <v>1577000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2345000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2212000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1573000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2270000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2753000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2694000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3526000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2925000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3539000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-171000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-203000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-185000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-237000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-248000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-167000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-297000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-212000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-220000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-129000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-123000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-338000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5023000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-344000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>431000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-111000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2735000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2025000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5241000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4354000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>307000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-856000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-874000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-801000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-804000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-800000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-817000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-736000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-742000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-740000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-682000</v>
       </c>
       <c r="N96" s="3">
         <v>-682000</v>
       </c>
       <c r="O96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-680000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-687000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-619000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-874000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-896000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3347000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2170000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-880000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>42000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-55000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-39000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-71000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>68000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-96000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3305000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3371000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1335000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5591000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2796000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5143000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5548000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5879000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5604000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5685000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5795000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5596000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5648000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5088000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5949000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6512000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7141000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6505000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7320000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1064000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>969000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1683000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1035000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>957000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1570000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1086000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1196000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1001000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1256000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1032000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>957000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1075000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5436000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4079000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4579000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4196000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4569000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4685000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4324000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4225000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4510000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4452000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4087000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4693000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5480000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6015000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5548000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6245000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5823000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1101000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1899000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4990000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1160000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1057000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1950000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>939000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1192000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>937000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1150000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>789000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>864000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>931000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1208000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,8 +1084,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1073,8 +1093,8 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4576000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8126000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3146000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4786000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7077000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3255000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3044000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4651000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2973000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3368000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2935000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3658000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2738000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3275000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2402000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1093000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2430000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2237000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1144000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2623000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2280000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2153000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2291000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3812000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4254000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3767000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4045000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-940000</v>
+      </c>
+      <c r="E20" s="3">
         <v>250000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-158000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1051000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>222000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>228000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>367000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>129000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>305000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>72000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>170000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>132000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>150000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>130000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>111000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>140000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2593000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2494000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-904000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3006000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2963000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1631000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3286000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2708000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2680000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2820000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4259000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4682000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4172000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4477000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>240000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>241000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>243000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>250000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>248000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>254000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>257000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>264000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>266000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>290000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>297000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>291000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>269000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>261000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>265000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2003000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1901000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2410000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2350000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1016000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2664000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2086000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2033000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2126000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3671000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4115000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3617000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3920000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E24" s="3">
         <v>373000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>465000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-788000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-333000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>535000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>382000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>999000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>565000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>277000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>494000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>470000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>959000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>918000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>821000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1538000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2689000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1875000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1968000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2099000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1809000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1539000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1656000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2712000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3069000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2699000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3099000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1551000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2696000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1880000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1975000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2097000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1807000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1538000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1627000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2718000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2702000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3108000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1780,23 +1841,23 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-14000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>10000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-250000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>158000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-222000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-228000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-367000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-129000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-305000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-72000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-170000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-132000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-150000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-111000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-140000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1551000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2696000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1880000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1975000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2097000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1817000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1538000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2718000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2702000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3108000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1551000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2696000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1880000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1975000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2097000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1817000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1538000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2718000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2702000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3108000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2314,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12886000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6746000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10051000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11631000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9474000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16927000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17940000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14569000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13234000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7643000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7588000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11508000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8712000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10285000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8229000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11089000</v>
+      </c>
+      <c r="E42" s="3">
         <v>12168000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10734000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12721000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13382000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15943000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10977000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12149000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13897000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12683000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16355000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17922000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16879000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12384000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3830000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3747000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3913000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3194000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3907000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3582000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3315000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3396000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3283000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3327000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3465000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3541000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3775000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3851000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4122000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4478000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4034000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4514000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1052000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>986000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>922000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>882000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>884000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>898000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>814000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>816000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>859000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>885000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>801000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1144000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1474000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1587000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1483000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1272000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1440000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1308000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2264000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1939000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1606000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2171000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2411000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1661000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1664000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1610000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1801000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3960000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30926000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24643000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26950000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30296000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28361000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33727000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34024000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35836000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34918000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32728000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30258000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31823000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35317000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28592000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21424000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19588000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2276000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3529000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1488000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2195000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3051000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2221000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1423000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2378000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5739000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8104000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11194000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12996000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15517000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19902000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20495000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4810000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4653000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4564000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5170000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5037000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4753000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4571000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4006000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3791000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3659000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3415000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3295000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3100000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3012000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2922000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2865000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17056000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17342000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17619000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17903000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18981000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19269000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19555000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19855000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20431000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20620000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20962000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21259000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9514000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9723000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9933000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10143000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7020000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7079000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6770000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4572000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2410000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2466000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2555000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2787000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2609000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2642000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2712000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3735000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3419000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3520000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4309000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60878000</v>
+      </c>
+      <c r="E54" s="3">
         <v>55934000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59741000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61627000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59146000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63210000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62837000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64305000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65355000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65381000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70283000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64662000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60263000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57701000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56977000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,103 +3142,107 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E57" s="3">
         <v>532000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>590000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>713000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>632000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>617000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>577000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>790000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>580000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>623000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>711000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>814000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>696000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>819000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>944000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1206000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2999000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1999000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2499000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2498000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1999000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2498000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2747000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2998000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2497000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2747000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1747000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3116,222 +3250,237 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7484000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7033000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6290000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6547000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6437000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6322000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7067000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6789000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7291000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7462000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8074000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7154000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7673000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7338000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8302000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9509000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10564000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8879000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9759000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9567000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8961000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9397000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10605000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10116000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10912000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10670000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11635000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9597000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8492000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8282000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9218000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27792000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21103000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22098000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22094000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22090000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24084000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24080000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24574000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24570000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26062000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26557000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30795000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27515000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26296000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26321000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26346000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6106000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6125000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6585000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7124000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6753000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7414000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7269000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6962000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6612000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6647000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7503000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7352000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2296000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2384000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2181000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2050000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43433000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37907000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37674000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39102000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38542000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40594000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40886000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>42288000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41444000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43683000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44790000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49841000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39817000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37586000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37260000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38090000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13709000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14445000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18709000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19388000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17616000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19829000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19326000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19024000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20706000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19825000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19196000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19012000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23689000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21823000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19564000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18154000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17445000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18027000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22067000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22525000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20604000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22616000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21951000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21387000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22861000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21672000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20591000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20442000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24845000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22677000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20441000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18887000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1551000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2696000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1880000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1975000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2097000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1817000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1538000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2718000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2702000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3108000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>349000</v>
+        <v>355000</v>
       </c>
       <c r="E83" s="3">
         <v>349000</v>
       </c>
       <c r="F83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="G83" s="3">
         <v>350000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>347000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>348000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>359000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>358000</v>
       </c>
       <c r="K83" s="3">
         <v>358000</v>
       </c>
       <c r="L83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="M83" s="3">
         <v>356000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>357000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>397000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>297000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>298000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>294000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>292000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2566000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1436000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2580000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2645000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2342000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1577000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2345000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2212000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1573000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2270000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2753000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2694000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3526000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2925000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3539000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-171000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-203000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-185000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-237000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-248000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-167000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-297000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-220000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-129000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-338000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-344000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>431000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-111000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2735000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2025000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5241000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4354000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>307000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-861000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-856000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-874000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-801000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-804000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-800000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-817000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-736000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-742000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-740000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-682000</v>
       </c>
       <c r="O96" s="3">
         <v>-682000</v>
       </c>
       <c r="P96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-680000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-687000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-619000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4124000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-874000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-896000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3347000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2170000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-880000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-61000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>42000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-39000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-71000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>46000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>68000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-96000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6140000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3371000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1335000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5591000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2796000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2056000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7421000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6577000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5143000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5548000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5879000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5604000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5685000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5281000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5795000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5596000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5648000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5088000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5949000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6512000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7141000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6505000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7320000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1141000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1064000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>969000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1683000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1035000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>957000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1570000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1086000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1196000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1001000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1256000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1126000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>957000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1075000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6023000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5436000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4079000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4579000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4196000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4569000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4685000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4324000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4225000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4510000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4452000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4087000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4693000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5480000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6015000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5548000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6245000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2329000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5823000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1101000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1899000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4990000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1160000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1057000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1950000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>939000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1192000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>937000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1150000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>789000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>864000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>931000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1208000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1106,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>24</v>
@@ -1096,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4770000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4576000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8126000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3146000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4786000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7077000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3255000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3044000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4651000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2973000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3368000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2935000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3658000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2887000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2738000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3275000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2651000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2001000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2402000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1093000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2430000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2237000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1144000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2623000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2280000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2153000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2291000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3812000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4254000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3767000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4045000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-940000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>250000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-158000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1051000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>222000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>228000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>367000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>129000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>305000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>72000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>170000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>132000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>150000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>130000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>111000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>140000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1416000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2593000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2494000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-904000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3006000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2963000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1631000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3286000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2708000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2680000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2820000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4259000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4682000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4172000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4477000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>241000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>243000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>250000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>248000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>254000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>257000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>264000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>266000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>290000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>297000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>291000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>269000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>261000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>265000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E23" s="3">
         <v>825000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2003000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1901000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2410000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2350000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1016000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2664000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2086000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2033000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2126000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3671000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4115000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3617000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3920000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E24" s="3">
         <v>472000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>373000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>465000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-788000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-333000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>535000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>382000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>999000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>565000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>277000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>494000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>470000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>959000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1046000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>918000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>821000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E26" s="3">
         <v>353000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1538000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2689000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1875000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1968000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2099000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1809000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1539000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1656000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2712000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3069000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2699000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3099000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E27" s="3">
         <v>360000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1551000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2696000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1880000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1975000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2097000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1807000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1538000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1627000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3073000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2702000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3108000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1844,23 +1904,23 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-14000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>10000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E32" s="3">
         <v>940000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-250000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>158000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-222000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-228000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-367000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-129000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-305000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-72000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-170000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-132000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-130000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-111000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-140000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E33" s="3">
         <v>360000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1551000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2696000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1880000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1975000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2097000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1817000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1538000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3073000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2702000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3108000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E35" s="3">
         <v>360000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1551000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2696000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1880000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1975000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2097000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1817000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1538000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3073000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2702000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3108000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,512 +2400,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5997000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12886000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6746000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10051000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11631000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9474000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16927000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17940000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14569000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13234000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7643000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7588000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11508000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8712000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10285000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8229000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E42" s="3">
         <v>11089000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12168000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10734000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12721000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13382000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15943000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10977000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12149000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13897000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12683000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16355000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17922000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16879000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12384000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3830000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3747000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4892000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3913000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3194000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3907000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3582000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3315000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3396000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3283000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3327000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3465000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3541000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3775000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3851000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4122000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4478000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4034000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4514000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1008000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1052000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>986000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>922000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>882000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>884000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>898000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>814000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>816000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>859000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>885000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>801000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1144000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1408000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1474000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1587000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2030000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1483000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1272000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1440000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1308000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2264000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1939000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1606000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2171000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2411000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1661000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1664000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1610000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1801000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3960000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15996000</v>
+      </c>
+      <c r="E46" s="3">
         <v>30926000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24643000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26950000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30296000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28361000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33727000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34024000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35836000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34918000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32728000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30258000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31823000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35317000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28592000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21424000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19588000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2074000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2276000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3529000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1488000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2195000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3051000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2221000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1423000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2378000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5739000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8104000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11194000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12996000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15517000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19902000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20495000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5613000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4810000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4653000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4564000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5170000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5037000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4753000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4571000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4006000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3791000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3659000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3415000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3295000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3012000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2922000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2865000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41234000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17056000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17342000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17619000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17903000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18981000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19269000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19555000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19855000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20431000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20620000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20962000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21259000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9514000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9723000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9933000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10143000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5062000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6012000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7020000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7079000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6770000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4572000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2410000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2466000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2555000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2787000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2609000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2642000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2712000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3735000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3419000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3520000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4309000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68407000</v>
+      </c>
+      <c r="E54" s="3">
         <v>60878000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55934000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59741000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61627000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59146000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63210000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62837000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63675000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64305000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65355000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65381000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70283000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64662000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60263000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57701000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56977000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,109 +3272,113 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E57" s="3">
         <v>527000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>532000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>590000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>713000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>632000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>617000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>577000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>790000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>580000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>623000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>711000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>814000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>696000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>819000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>944000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1206000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1498000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2999000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1999000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2499000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2498000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1999000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2498000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2747000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2998000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2497000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2747000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3253,234 +3386,249 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7796000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7484000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7033000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6290000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6547000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6437000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6322000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7067000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6789000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7291000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7462000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8074000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7154000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7673000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7338000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8302000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11397000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9509000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10564000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8879000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9759000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9567000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8961000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9397000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10605000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10116000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10912000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10670000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11635000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9597000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8492000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8282000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9218000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28645000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27792000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21103000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22098000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22094000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22090000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24084000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24080000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24574000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24570000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26062000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26557000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30795000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27515000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26296000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26321000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26346000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10144000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6106000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6125000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6585000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7124000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6753000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7414000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7269000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6962000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6612000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6647000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7503000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7352000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2296000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2384000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2181000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2050000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50205000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43433000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37907000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37674000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39102000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38542000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40594000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40886000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42288000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41444000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43683000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44790000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49841000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39817000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37586000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37260000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38090000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14381000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13709000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14445000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18709000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19388000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17616000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19829000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19326000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19024000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20706000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19825000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19196000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19012000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23689000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21823000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19564000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18154000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18202000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17445000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18027000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22067000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22525000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20604000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22616000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21951000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21387000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22861000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21672000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20591000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20442000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24845000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22677000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20441000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18887000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E81" s="3">
         <v>360000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1551000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2696000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1880000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1975000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2097000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1817000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1538000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3073000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2702000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3108000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E83" s="3">
         <v>355000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>349000</v>
       </c>
       <c r="F83" s="3">
         <v>349000</v>
       </c>
       <c r="G83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="H83" s="3">
         <v>350000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>347000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>348000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>359000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>358000</v>
       </c>
       <c r="L83" s="3">
         <v>358000</v>
       </c>
       <c r="M83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="N83" s="3">
         <v>356000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>357000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>397000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>297000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>298000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>294000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>292000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2250000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2566000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1436000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2580000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2645000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2342000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1577000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2345000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2212000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1573000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2270000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2753000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2694000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3526000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2925000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3539000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-155000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-203000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-185000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-237000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-248000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-167000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-297000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-212000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-220000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-123000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-338000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8977000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-271000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-344000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>431000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-111000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2735000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2025000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5241000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4354000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>307000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-858000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-861000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-856000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-874000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-801000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-804000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-800000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-817000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-736000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-742000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-740000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-682000</v>
       </c>
       <c r="P96" s="3">
         <v>-682000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-680000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-687000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-619000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4124000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-874000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-896000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3347000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2170000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-880000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>37000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-61000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>42000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-55000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-39000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-71000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>46000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>68000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-96000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6889000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6140000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2157000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3371000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1335000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5591000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2796000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2056000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6423000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7421000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6577000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5143000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5548000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5879000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5604000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5685000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5795000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5596000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5648000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5088000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5949000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6512000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7141000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6505000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7320000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1398000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1141000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1064000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>969000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1683000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1035000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>957000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1570000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1086000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1196000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1001000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1032000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1126000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>957000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1075000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5062000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6023000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5436000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4079000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4579000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4196000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4569000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4685000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4324000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4225000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4510000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4452000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4087000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4693000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5480000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6015000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5548000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6245000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1642000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2329000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5823000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1101000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1899000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4990000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1160000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1057000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1950000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>939000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1192000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>937000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>789000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>864000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>931000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1208000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,31 +1085,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1109,8 +1129,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>24</v>
@@ -1118,8 +1138,8 @@
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3533000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4770000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4576000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8126000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3146000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4786000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7077000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3255000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3044000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4651000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2973000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3368000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2935000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3658000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2887000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2738000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3275000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2890000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2651000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2001000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2402000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1093000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2430000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2237000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1144000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2623000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2280000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2153000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2291000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3812000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4254000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3767000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4045000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-570000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-940000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>250000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-158000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1051000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>222000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>228000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>367000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>129000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>305000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>72000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>170000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>132000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>150000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>130000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>111000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>140000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2994000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2508000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1416000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2593000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2494000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-904000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3006000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2963000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1631000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3286000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2708000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2680000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2820000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4259000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4682000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4172000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4477000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E22" s="3">
         <v>267000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>236000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>240000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>241000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>243000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>250000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>248000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>254000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>257000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>264000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>266000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>290000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>297000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>291000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>269000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>261000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>265000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2264000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1814000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>825000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2003000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1901000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2410000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2350000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1016000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2664000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2086000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2033000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2126000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3671000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4115000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3617000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3920000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E24" s="3">
         <v>270000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>472000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>373000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>465000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-788000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-333000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>535000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>382000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>999000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>565000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>277000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>494000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>470000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>959000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1046000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>918000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>821000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1544000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>353000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1538000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2689000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1875000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1968000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2099000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1809000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1539000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2712000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3069000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2699000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3099000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1551000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>360000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1551000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2696000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1880000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1975000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2097000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1807000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1538000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2718000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3073000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2702000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3108000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1907,23 +1968,23 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-14000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>10000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E32" s="3">
         <v>570000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>940000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-250000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>158000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-222000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-228000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-367000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-129000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-305000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-72000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-170000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-150000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-130000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-111000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-140000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1551000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>360000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1551000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2696000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1880000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1975000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2097000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1817000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1538000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2718000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3073000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2702000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3108000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1551000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>360000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1551000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2696000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1880000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1975000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2097000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1817000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1538000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2718000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3073000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2702000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3108000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4065000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5997000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12886000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6746000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10051000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11631000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9474000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11240000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16927000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17940000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14569000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13234000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7643000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7588000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11508000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8712000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10285000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8229000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1411000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11089000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12168000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10734000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12721000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13382000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15943000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10977000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12149000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13897000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12683000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16355000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17922000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16879000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12384000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3830000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3747000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3925000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4892000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3913000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3194000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3907000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3582000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3315000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3396000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3283000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3327000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3465000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3541000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3775000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3851000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4122000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4478000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4034000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4514000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1683000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1008000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1052000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>986000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>922000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>882000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>884000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>898000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>814000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>816000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>859000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>885000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>801000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1144000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1408000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1474000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1587000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2013000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2030000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1483000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1272000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1440000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1308000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2264000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1939000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1606000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2171000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2411000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1661000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1664000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1610000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1801000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3960000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13278000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15996000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30926000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24643000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26950000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30296000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28361000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33727000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34024000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35836000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34918000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32728000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30258000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31823000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35317000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28592000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21424000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19588000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E47" s="3">
         <v>502000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2074000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2276000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3529000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1488000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2195000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3051000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2221000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1423000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2378000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5739000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8104000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11194000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12996000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15517000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19902000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20495000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5613000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4810000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4653000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4564000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5170000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5037000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4753000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4571000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4006000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3791000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3659000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3415000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3295000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3012000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2922000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2865000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43115000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41234000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17056000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17342000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17619000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17903000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18981000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19269000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19555000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19855000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20431000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20620000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20962000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21259000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9514000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9723000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9933000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10143000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5530000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5062000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6012000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7020000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7079000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6770000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4572000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2410000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2466000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2555000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2787000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2609000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2642000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2712000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3735000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3419000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3520000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4309000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67492000</v>
+      </c>
+      <c r="E54" s="3">
         <v>68407000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60878000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55934000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59741000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61627000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59146000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63210000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62837000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63675000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64305000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65355000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65381000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70283000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64662000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60263000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57701000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56977000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,115 +3403,119 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E57" s="3">
         <v>844000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>527000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>532000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>590000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>713000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>632000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>617000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>577000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>790000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>580000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>623000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>711000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>814000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>696000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>819000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>944000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1206000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2259000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2757000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1498000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2999000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1999000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2499000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2498000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1999000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2498000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2748000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2747000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2998000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2497000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2747000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1747000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3389,246 +3523,261 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6876000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7796000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7484000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7033000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6290000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6547000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6437000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6322000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7067000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6789000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7291000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7462000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8074000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7154000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7673000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7338000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8302000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9705000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11397000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9509000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10564000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8879000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9759000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9567000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8961000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9397000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10605000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10116000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10912000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10670000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11635000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9597000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8492000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8282000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9218000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27907000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28645000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27792000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21103000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22098000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22094000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22090000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24084000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24080000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24574000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24570000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26062000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26557000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30795000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27515000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26296000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26321000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26346000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10916000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10144000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6106000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6125000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6585000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7124000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6753000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7414000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7269000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6962000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6612000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6647000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7503000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7352000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2296000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2384000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2181000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2050000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48540000</v>
+      </c>
+      <c r="E66" s="3">
         <v>50205000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43433000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37907000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37674000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39102000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38542000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40594000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40886000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42288000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41444000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43683000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44790000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49841000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39817000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37586000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37260000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38090000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14821000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14381000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13709000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14445000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18709000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19388000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17616000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19829000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19326000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19024000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20706000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19825000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19196000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19012000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23689000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21823000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19564000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18154000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18952000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18202000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17445000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18027000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22067000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22525000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20604000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22616000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21951000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21387000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22861000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21672000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20591000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20442000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24845000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22677000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20441000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18887000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1551000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>360000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1551000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2696000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1880000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1975000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2097000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1817000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1538000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2718000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3073000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2702000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3108000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E83" s="3">
         <v>427000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>355000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>349000</v>
       </c>
       <c r="G83" s="3">
         <v>349000</v>
       </c>
       <c r="H83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="I83" s="3">
         <v>350000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>347000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>348000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>359000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>358000</v>
       </c>
       <c r="M83" s="3">
         <v>358000</v>
       </c>
       <c r="N83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="O83" s="3">
         <v>356000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>357000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>397000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>297000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>298000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>294000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>292000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1916000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2250000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2566000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1436000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2580000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2645000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2342000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1577000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2345000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2212000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1573000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2270000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2694000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3526000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2925000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3539000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-181000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-155000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-171000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-203000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-185000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-237000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-248000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-167000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-297000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-212000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-129000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-123000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-338000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2042000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-271000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-344000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>431000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-111000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2735000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2025000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5241000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4354000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>307000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-917000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-858000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-861000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-856000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-874000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-801000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-804000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-800000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-817000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-736000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-742000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-740000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-682000</v>
       </c>
       <c r="Q96" s="3">
         <v>-682000</v>
       </c>
       <c r="R96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-680000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-687000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-619000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2477000</v>
+      </c>
+      <c r="E100" s="3">
         <v>131000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4124000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-874000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-896000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3347000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2170000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-880000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-61000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>42000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-55000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-39000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-71000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>68000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-96000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1932000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6140000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2157000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3371000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1335000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5591000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2796000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2056000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6217000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6423000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7421000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6577000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5143000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5548000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5879000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5604000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5685000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5281000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5795000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5596000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5648000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5088000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5949000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6512000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7141000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6505000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7320000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1390000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1361000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1398000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1141000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1064000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>969000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1683000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1035000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>957000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1570000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1086000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1196000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1256000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1032000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1126000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>957000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1075000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4827000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5062000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6023000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5436000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4079000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4579000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4196000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4569000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4685000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4324000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4225000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4510000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4452000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4087000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4693000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5480000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6015000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5548000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6245000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1117000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1642000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2329000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5823000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1101000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1899000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4990000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1160000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1057000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1950000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>939000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1192000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>937000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1150000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>789000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>864000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>931000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1208000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,16 +1105,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1114,8 +1134,8 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1132,8 +1152,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>24</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>24</v>
@@ -1141,8 +1161,8 @@
       <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3971000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3533000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4770000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4576000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8126000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3146000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4786000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7077000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3255000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3044000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4651000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2973000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3368000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2935000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3658000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2887000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2738000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3275000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2246000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2890000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2651000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2001000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2402000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1093000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2430000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2237000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1144000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2623000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2280000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2153000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2291000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3812000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4254000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3767000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4045000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-369000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-570000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-940000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>250000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-158000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1051000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>222000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>228000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>367000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>129000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>305000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>72000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>170000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>132000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>150000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>130000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>111000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>140000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2994000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2508000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1416000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2593000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2494000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-904000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3006000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2963000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1631000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3286000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2708000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2680000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2820000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4259000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4682000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4172000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4477000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E22" s="3">
         <v>257000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>267000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>236000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>240000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>241000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>243000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>250000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>248000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>254000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>257000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>264000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>266000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>290000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>297000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>291000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>269000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>261000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>265000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1817000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2264000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1814000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>825000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2003000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1901000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2410000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2350000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1016000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2664000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2086000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2033000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2126000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3671000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4115000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3617000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3920000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E24" s="3">
         <v>542000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>270000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>472000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>373000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>465000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-788000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-333000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>535000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>382000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>999000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>565000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>277000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>494000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>470000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>959000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1046000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>918000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>821000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1722000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1544000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>353000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1538000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2689000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1875000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1968000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2099000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1809000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1539000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1656000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2712000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3069000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2699000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3099000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1729000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1551000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>360000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1551000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2696000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1880000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1975000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2097000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1807000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1627000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2718000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3073000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2702000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3108000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1971,23 +2032,23 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-14000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>10000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E32" s="3">
         <v>369000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>570000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>940000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-250000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>158000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-222000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-228000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-367000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-129000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-305000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-72000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-132000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-150000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-130000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-111000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-140000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1729000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1551000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>360000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1551000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2696000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1880000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1975000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2097000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1817000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2718000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3073000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2702000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3108000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1729000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1551000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>360000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1551000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2696000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1880000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1975000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2097000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1817000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2718000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3073000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2702000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3108000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4893000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4065000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5997000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12886000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6746000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10051000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11631000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9474000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11240000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16927000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17940000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14569000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13234000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7643000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7588000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11508000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8712000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10285000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8229000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1601000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1411000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11089000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12168000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10734000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12721000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13382000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15943000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10977000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12149000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13897000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12683000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16355000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17922000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16879000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12384000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3830000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3747000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3925000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4892000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3913000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3194000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3907000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3582000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3315000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3396000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3283000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3327000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3465000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3541000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3775000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3851000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4122000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4478000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4034000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4514000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1779000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1683000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1008000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1052000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>986000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>922000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>882000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>884000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>898000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>814000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>816000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>859000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>885000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>801000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1144000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1408000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1474000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1587000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1908000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2013000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2030000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1483000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1272000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1440000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1308000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2264000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1939000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1606000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2171000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2411000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1661000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1664000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1610000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1801000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3960000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13925000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13278000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15996000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30926000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24643000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26950000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30296000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28361000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33727000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34024000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35836000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34918000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32728000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30258000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31823000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35317000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28592000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21424000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19588000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E47" s="3">
         <v>579000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>502000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2074000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2276000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3529000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1488000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2195000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3051000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2221000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1423000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2378000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5739000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8104000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11194000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12996000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15517000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19902000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20495000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4996000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4990000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5613000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4810000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4653000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4564000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5170000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5037000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4753000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4571000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4006000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3791000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3659000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3415000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3295000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3012000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2922000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2865000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42675000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43115000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41234000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17056000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17342000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17619000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17903000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18981000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19269000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19555000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19855000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20431000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20620000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20962000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21259000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9514000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9723000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9933000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10143000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5552000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5530000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5062000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6012000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7020000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7079000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6770000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4572000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2410000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2466000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2555000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2787000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2609000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2642000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2712000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3735000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3419000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3520000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4309000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67984000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67492000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>68407000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60878000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55934000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59741000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>61627000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59146000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63210000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62837000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63675000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64305000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65355000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65381000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70283000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>64662000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60263000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57701000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56977000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,121 +3534,125 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E57" s="3">
         <v>570000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>844000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>527000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>532000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>590000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>713000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>632000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>617000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>577000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>790000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>580000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>623000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>711000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>814000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>696000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>819000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>944000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1206000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2261000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2259000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2757000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1498000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2999000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1999000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2499000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2498000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1999000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2498000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2748000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2747000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2998000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2497000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2747000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1747000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -3526,258 +3660,273 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7345000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6876000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7796000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7484000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7033000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6290000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6547000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6437000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6322000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7067000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6789000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7291000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7462000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8074000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7154000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7673000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7338000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8302000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10214000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9705000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11397000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9509000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10564000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8879000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9759000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9567000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8961000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9397000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10605000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10116000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10912000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10670000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11635000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9597000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8492000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8282000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9218000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27914000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27907000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28645000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27792000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21103000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22098000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22094000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22090000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24084000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24080000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24574000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24570000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26062000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26557000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30795000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27515000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26296000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26321000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26346000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10146000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10916000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10144000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6106000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6125000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6585000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7124000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6753000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7414000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7269000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6962000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6612000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6647000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7503000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7352000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2296000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2384000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2181000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2050000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48281000</v>
+      </c>
+      <c r="E66" s="3">
         <v>48540000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50205000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43433000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37907000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37674000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39102000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38542000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40594000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40886000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42288000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41444000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43683000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44790000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49841000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39817000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37586000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37260000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38090000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15392000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14821000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14381000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13709000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14445000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18709000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19388000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17616000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19829000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19326000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19024000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20706000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19825000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19196000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19012000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23689000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21823000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19564000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18154000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19703000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18952000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17445000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18027000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22067000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22525000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20604000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22616000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21951000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21387000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22861000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21672000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20591000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20442000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24845000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22677000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20441000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18887000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1729000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1551000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>360000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1551000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2696000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1880000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1975000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2097000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1817000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2718000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3073000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2702000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3108000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E83" s="3">
         <v>473000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>427000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>355000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>349000</v>
       </c>
       <c r="H83" s="3">
         <v>349000</v>
       </c>
       <c r="I83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="J83" s="3">
         <v>350000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>347000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>348000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>359000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>358000</v>
       </c>
       <c r="N83" s="3">
         <v>358000</v>
       </c>
       <c r="O83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="P83" s="3">
         <v>356000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>357000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>397000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>297000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>298000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>294000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>292000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2610000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1916000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2250000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2566000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1436000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2580000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2645000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2342000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1577000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2345000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2212000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1573000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2270000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2753000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2694000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3526000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2925000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3539000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-165000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-181000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-155000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-143000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-171000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-203000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-185000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-237000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-248000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-167000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-297000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-220000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-129000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-123000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-118000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-338000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-271000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-344000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>431000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-111000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2735000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2025000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5241000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4354000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>307000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-894000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-917000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-858000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-861000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-856000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-874000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-801000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-804000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-800000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-817000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-736000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-742000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-740000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-682000</v>
       </c>
       <c r="R96" s="3">
         <v>-682000</v>
       </c>
       <c r="S96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-680000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-687000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-619000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-931000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>131000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4124000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-874000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-896000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3347000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2170000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-880000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-61000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>42000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-39000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-71000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>68000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-96000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>828000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6140000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2157000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3371000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1335000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5591000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2796000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2056000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7421000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6217000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6423000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7421000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6577000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5143000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5548000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5879000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5604000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5685000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5281000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5795000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5596000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5648000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5088000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5949000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6512000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7141000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6505000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7320000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1390000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1361000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1141000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1064000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>969000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1683000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1035000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>957000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1570000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1086000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1001000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1256000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1032000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1126000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>957000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1075000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6198000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4827000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5062000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6023000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5436000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4079000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4579000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4196000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4569000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4685000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4324000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4225000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4510000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4452000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4087000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4693000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5480000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6015000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5548000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6245000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1230000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1117000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1642000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2329000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5823000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1101000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1899000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4990000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1160000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1057000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1950000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>939000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>937000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1150000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>789000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>864000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>931000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1208000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,19 +1125,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>11000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1137,8 +1157,8 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1155,8 +1175,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>24</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>24</v>
@@ -1164,8 +1184,8 @@
       <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3971000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3533000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4770000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4576000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8126000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3146000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4786000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7077000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3255000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3044000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4651000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2973000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3368000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2935000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3658000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2887000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2738000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3275000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3842000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2246000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2890000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2651000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2001000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2402000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1093000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2430000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2237000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1144000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2623000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2280000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2153000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2291000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3812000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4254000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3767000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4045000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,333 +1448,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-173000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-369000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-570000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-940000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>250000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-158000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1051000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>222000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>228000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>367000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>129000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>305000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>72000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>170000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>132000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>150000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>130000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>111000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>140000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4211000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2592000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2994000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2508000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1416000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2593000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2494000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-904000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3006000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2963000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1631000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3286000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2708000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2680000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2820000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4259000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4682000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4172000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4477000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E22" s="3">
         <v>256000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>257000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>267000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>236000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>240000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>241000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>243000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>250000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>248000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>254000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>257000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>264000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>266000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>290000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>297000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>291000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>269000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>261000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>265000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3438000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1817000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2264000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1814000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>825000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2003000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1901000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2410000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2350000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1016000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2664000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2086000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2033000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2126000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3671000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4115000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3617000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3920000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E24" s="3">
         <v>300000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>542000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>270000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>472000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>373000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>465000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-788000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-333000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>535000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>382000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>999000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>565000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>277000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>494000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>470000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>959000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1046000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>918000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>821000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2586000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1517000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1722000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1544000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>353000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1538000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2689000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1875000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1968000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2099000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1809000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1539000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1656000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2712000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3069000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2699000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3099000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1522000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1729000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1551000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>360000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2696000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1880000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1975000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2097000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1807000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1538000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1627000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2718000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3073000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2702000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3108000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2035,23 +2096,23 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-14000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E32" s="3">
         <v>173000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>369000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>570000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>940000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-250000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>158000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-222000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-228000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-367000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-129000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-305000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-170000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-132000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-150000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-130000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-111000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-140000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1522000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1729000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1551000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>360000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1551000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2696000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1880000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1975000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2097000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1538000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2718000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3073000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2702000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3108000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1522000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1729000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1551000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>360000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1551000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2696000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1880000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1975000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2097000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1538000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2718000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3073000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2702000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3108000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2661,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4362000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4893000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4065000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5997000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12886000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6746000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10051000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11631000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9474000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11240000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16927000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17940000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14569000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13234000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7643000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7588000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11508000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8712000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10285000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8229000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1632000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1601000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1411000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>11089000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12168000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10734000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12721000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13382000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15943000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10977000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12149000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13897000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12683000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16355000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17922000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16879000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12384000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3830000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3747000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4566000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4149000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3925000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4892000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3913000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3194000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3907000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3582000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3315000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3396000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3283000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3327000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3465000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3541000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3775000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3851000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4122000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4478000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4034000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4514000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1676000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1772000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1779000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1683000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1008000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1052000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>986000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>922000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>882000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>884000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>898000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>814000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>816000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>859000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>885000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>801000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1144000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1408000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1474000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1587000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1479000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1908000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2013000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2030000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1483000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1440000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1308000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2264000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1939000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1606000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2171000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2411000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1661000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1664000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1610000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1801000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3960000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13991000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13925000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13278000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15996000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30926000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24643000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26950000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30296000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28361000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33727000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34024000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35836000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34918000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32728000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30258000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31823000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35317000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28592000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21424000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19588000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E47" s="3">
         <v>836000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>579000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>502000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2074000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2276000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3529000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1488000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2195000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3051000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2221000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1423000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2378000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5739000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8104000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11194000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12996000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15517000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19902000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20495000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5037000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4996000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4990000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5613000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4810000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4653000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4564000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5170000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5037000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4753000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4571000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4006000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3791000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3659000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3415000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3295000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3012000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2922000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2865000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42232000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42675000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43115000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41234000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17056000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17342000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17619000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17903000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18981000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19269000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19555000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19855000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20431000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20620000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20962000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21259000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9514000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9723000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9933000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10143000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5552000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5530000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5062000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6012000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7020000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7079000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6770000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4572000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2410000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2466000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2555000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2787000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2609000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2642000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2712000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3735000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3419000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3520000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4309000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67098000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67984000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67492000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68407000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60878000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55934000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59741000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61627000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59146000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63210000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62837000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63675000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64305000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65355000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65381000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70283000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>64662000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60263000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57701000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56977000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,127 +3665,131 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E57" s="3">
         <v>608000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>570000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>844000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>527000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>532000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>590000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>713000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>632000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>617000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>577000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>790000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>580000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>623000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>711000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>814000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>696000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>819000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>944000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1206000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2511000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2261000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2259000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2757000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1498000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2999000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1999000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2499000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2498000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1999000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2498000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2748000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2747000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2998000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2497000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2747000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1747000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -3663,270 +3797,285 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7149000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7345000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6876000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7796000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7484000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7033000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6290000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6547000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6437000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6322000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7067000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6789000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7291000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7462000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8074000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7154000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7673000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7338000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8302000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10245000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10214000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9705000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11397000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9509000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8879000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9759000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9567000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8961000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9397000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10605000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10116000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10912000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10670000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11635000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9597000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8492000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8282000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9218000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25175000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27914000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27907000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28645000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27792000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21103000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22098000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22094000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22090000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24084000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24080000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24574000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24570000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26062000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26557000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30795000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27515000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26296000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26321000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26346000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10207000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10146000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10916000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10144000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6106000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6125000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6585000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7124000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6753000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7414000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7269000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6962000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6612000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6647000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7503000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7352000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2296000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2384000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2181000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2050000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45628000</v>
+      </c>
+      <c r="E66" s="3">
         <v>48281000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48540000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50205000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43433000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37907000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37674000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39102000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40594000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40886000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42288000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41444000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43683000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44790000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49841000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39817000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37586000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37260000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38090000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16903000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15392000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14821000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14381000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13709000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14445000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18709000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19388000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17616000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19829000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19326000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19024000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20706000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19825000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19196000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19012000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23689000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21823000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19564000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18154000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21470000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19703000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18952000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17445000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18027000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22067000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22525000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20604000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22616000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21951000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21387000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22861000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21672000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20591000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20442000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24845000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22677000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20441000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18887000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1522000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1729000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1551000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>360000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1551000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2696000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1880000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1975000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2097000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1538000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2718000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3073000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2702000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3108000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E83" s="3">
         <v>519000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>473000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>427000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>355000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>349000</v>
       </c>
       <c r="I83" s="3">
         <v>349000</v>
       </c>
       <c r="J83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K83" s="3">
         <v>350000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>347000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>348000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>359000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>358000</v>
       </c>
       <c r="O83" s="3">
         <v>358000</v>
       </c>
       <c r="P83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>356000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>357000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>397000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>297000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>298000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>294000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>292000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3253000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2316000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2610000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1916000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2250000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2566000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1436000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2580000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2645000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2342000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1577000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2345000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2212000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1573000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2270000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2753000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2694000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3526000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2925000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3539000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-165000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-181000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-155000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-143000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-171000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-203000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-185000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-237000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-248000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-167000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-212000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-220000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-129000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-123000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-118000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-338000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-577000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-271000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-344000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>431000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-111000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2735000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2025000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5241000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4354000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>307000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6018,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-900000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-894000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-917000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-858000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-861000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-856000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-874000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-801000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-804000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-800000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-817000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-736000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-742000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-740000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-682000</v>
       </c>
       <c r="S96" s="3">
         <v>-682000</v>
       </c>
       <c r="T96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-680000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-687000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-619000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3527000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-931000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>131000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4124000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-874000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-896000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3347000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2170000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-880000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-23000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-61000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>42000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-39000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>46000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>68000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-96000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-531000</v>
+      </c>
+      <c r="E102" s="3">
         <v>828000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6140000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2157000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3371000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1335000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5591000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2796000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2056000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7244000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7421000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6217000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6423000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7421000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6577000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5143000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5548000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5879000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5604000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5685000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5795000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5596000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5648000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5088000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5949000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6512000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7141000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6505000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7320000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1223000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1390000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1361000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1141000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1064000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>969000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1683000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1035000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>957000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1570000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1196000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1001000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1256000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1032000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1126000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>957000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1075000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4617000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6198000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4827000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5062000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6023000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5436000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4079000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4579000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4196000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4569000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4685000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4324000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4225000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4510000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4452000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4087000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4693000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5480000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6015000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5548000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6245000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2027000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1166000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1230000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1117000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1642000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2329000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5823000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1101000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1899000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4990000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1160000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1057000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1950000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>939000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1192000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>937000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1150000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>789000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>864000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>931000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1208000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,11 +1158,11 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
         <v>11000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1160,8 +1179,8 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1178,8 +1197,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>24</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>24</v>
@@ -1187,8 +1206,8 @@
       <c r="U14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6304000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3579000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3971000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3533000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4770000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4576000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8126000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3146000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4786000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7077000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3255000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3044000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4651000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2973000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3368000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2935000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3658000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2887000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2738000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3275000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3842000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2246000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2890000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2651000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2001000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2402000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1093000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2430000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2237000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1144000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2623000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2280000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2153000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2291000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3812000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4254000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3767000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4045000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-154000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-173000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-369000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-570000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-940000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>250000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-158000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1051000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>222000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>228000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>367000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>129000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>305000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>72000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>170000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>132000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>150000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>130000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>111000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>140000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4211000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2592000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2994000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2508000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1416000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2593000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2494000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-904000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3006000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2963000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1631000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3286000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2708000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2680000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2820000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4259000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4682000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4172000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4477000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E22" s="3">
         <v>250000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>256000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>257000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>267000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>236000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>240000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>241000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>243000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>250000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>248000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>254000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>257000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>264000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>266000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>290000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>297000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>291000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>269000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>261000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>265000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3438000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1817000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2264000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1814000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>825000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2003000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1901000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2410000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2350000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1016000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2664000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2086000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2033000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2126000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3671000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4115000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3617000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3920000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E24" s="3">
         <v>852000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>542000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>270000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>472000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>373000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>465000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-788000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-333000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>535000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>382000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>999000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>565000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>277000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>494000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>470000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>959000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1046000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>918000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>821000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2586000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1517000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1722000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1544000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>353000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1538000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2689000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1875000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1968000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2099000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1809000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1539000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1656000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2712000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3069000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2699000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3099000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2592000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1522000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1729000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1551000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>360000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1551000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2696000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1880000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1975000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2097000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1807000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1538000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1627000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2718000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3073000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2702000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3108000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2099,23 +2159,23 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-14000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>10000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E32" s="3">
         <v>154000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>173000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>369000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>570000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>940000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-250000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>158000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-222000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-228000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-367000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-129000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-305000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-72000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-170000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-132000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-150000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-130000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-111000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-140000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2592000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1522000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1729000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1551000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>360000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1551000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2696000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1880000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1975000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2097000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1817000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1538000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2718000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3073000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2702000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3108000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2592000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1522000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1729000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1551000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>360000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1551000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2696000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1880000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1975000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2097000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1817000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1538000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2718000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3073000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2702000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3108000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,620 +2747,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5338000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4362000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4893000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4065000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5997000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12886000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6746000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10051000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11631000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9474000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11240000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16927000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17940000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14569000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13234000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7643000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7588000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11508000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8712000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10285000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8229000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1376000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1632000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1601000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1411000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11089000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12168000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10734000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12721000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13382000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15943000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10977000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12149000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13897000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12683000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16355000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17922000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16879000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12384000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3830000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3747000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4493000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4566000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4149000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3925000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4892000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3913000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3194000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3907000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3582000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3315000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3396000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3283000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3327000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3465000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3541000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3775000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3851000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4122000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4478000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4034000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4514000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1676000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1772000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1779000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1683000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1008000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1052000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>986000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>922000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>882000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>884000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>898000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>814000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>816000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>859000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>885000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>801000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1144000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1408000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1474000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1587000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2141000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2011000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1479000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1908000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2013000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2030000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1483000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1272000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1440000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1308000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2264000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1939000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1606000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2171000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2411000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1661000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1664000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1610000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1801000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3960000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14772000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13991000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13925000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13278000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15996000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30926000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24643000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26950000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30296000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28361000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33727000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34024000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35836000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34918000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32728000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30258000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31823000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35317000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28592000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21424000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19588000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1099000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>836000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>579000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>502000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2074000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2276000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3529000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1488000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2195000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3051000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2221000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1423000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5739000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8104000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11194000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12996000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15517000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19902000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20495000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5121000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5037000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4996000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4990000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5613000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4810000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4653000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4564000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5170000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5037000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4753000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4571000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4006000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3791000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3659000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3415000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3295000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3100000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3012000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2922000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2865000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41787000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42232000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42675000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43115000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41234000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17056000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17342000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17619000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17903000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18981000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19269000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19555000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19855000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20431000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20620000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20962000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21259000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9514000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9723000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9933000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10143000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4963000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4739000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5552000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5530000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5062000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6012000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7020000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7079000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6770000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4572000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2410000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2466000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2555000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2787000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2609000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2642000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2712000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3735000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3419000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3520000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4309000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67952000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67098000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67984000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67492000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>68407000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60878000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55934000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59741000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61627000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59146000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63210000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>62837000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63675000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64305000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65355000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65381000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70283000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64662000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60263000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57701000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56977000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,133 +3795,137 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E57" s="3">
         <v>585000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>608000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>570000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>844000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>527000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>532000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>590000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>713000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>632000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>617000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>577000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>790000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>580000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>623000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>711000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>814000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>696000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>819000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>944000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1206000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1516000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2511000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2261000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2259000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2757000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1498000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2999000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1999000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2499000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2498000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1999000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2498000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2748000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2747000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2998000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2497000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2747000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1747000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -3800,282 +3933,297 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9389000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7149000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7345000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6876000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7796000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7484000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7033000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6290000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6547000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6437000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6345000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6322000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7067000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6789000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7291000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7462000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8074000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7154000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7673000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7338000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8302000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11610000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10245000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10214000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9705000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11397000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9509000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10564000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8879000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9759000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9567000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8961000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9397000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10605000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10116000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10912000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10670000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11635000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9597000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8492000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8282000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9218000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25179000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25175000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27914000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27907000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28645000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27792000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21103000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22098000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22094000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22090000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24084000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24080000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24574000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24570000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26062000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26557000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30795000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27515000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26296000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26321000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26346000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10099000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10207000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10146000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10916000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10144000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6106000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6125000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6585000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7124000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6753000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7414000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7269000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6962000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6612000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6647000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7503000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7352000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2296000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2384000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2181000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2050000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46883000</v>
+      </c>
+      <c r="E66" s="3">
         <v>45628000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48281000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48540000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50205000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43433000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37907000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37674000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39102000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40594000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40886000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42288000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41444000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43683000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44790000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49841000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39817000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37586000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>37260000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38090000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16324000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16903000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15392000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14821000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14381000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13709000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14445000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18709000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19388000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17616000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19829000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19326000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19024000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20706000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19825000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19196000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19012000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23689000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21823000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19564000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18154000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21069000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21470000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19703000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18952000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18202000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17445000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18027000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22067000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22525000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20604000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22616000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21951000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21387000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22861000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21672000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20591000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20442000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24845000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22677000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20441000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18887000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2592000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1522000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1729000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1551000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>360000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1551000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2696000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1880000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1975000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2097000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1817000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1538000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2718000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3073000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2702000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3108000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E83" s="3">
         <v>523000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>519000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>473000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>427000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>355000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>349000</v>
       </c>
       <c r="J83" s="3">
         <v>349000</v>
       </c>
       <c r="K83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="L83" s="3">
         <v>350000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>347000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>348000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>359000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>358000</v>
       </c>
       <c r="P83" s="3">
         <v>358000</v>
       </c>
       <c r="Q83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="R83" s="3">
         <v>356000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>357000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>397000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>297000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>298000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>294000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>292000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3205000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3253000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2316000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2610000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1916000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2250000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2566000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1436000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2580000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2645000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2342000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1577000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2345000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2212000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1573000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2270000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2753000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2694000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3526000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2925000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3539000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-119000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-165000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-181000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-155000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-143000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-171000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-203000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-185000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-237000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-248000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-297000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-212000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-220000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-129000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-123000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-118000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-338000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-234000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-577000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-271000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-344000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>431000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-111000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2735000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5241000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4354000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>307000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-894000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-894000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-917000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-858000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-861000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-856000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-874000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-801000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-804000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-800000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-817000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-736000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-742000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-740000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-682000</v>
       </c>
       <c r="T96" s="3">
         <v>-682000</v>
       </c>
       <c r="U96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-680000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-687000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-619000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1942000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-931000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>131000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4124000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-874000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-896000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3347000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2170000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-880000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-61000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-39000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-71000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>68000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-96000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-531000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>828000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6140000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2157000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3371000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5591000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2796000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2056000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6590000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7244000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7421000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6217000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6423000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7421000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6577000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5143000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5548000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5879000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5604000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5685000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5281000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5795000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5596000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5648000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5088000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5949000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6512000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7141000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6505000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7320000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2627000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1223000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1390000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1361000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1398000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1141000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1064000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>969000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1683000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1035000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>957000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1570000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1086000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1196000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1001000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1256000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1032000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1126000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>957000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1075000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4617000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6198000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4827000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5062000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6023000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5436000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4079000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4579000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4196000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4569000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4685000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4324000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4225000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4510000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4452000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4087000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4693000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5480000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6015000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5548000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6245000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2027000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1166000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1230000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1117000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1642000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2329000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5823000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1101000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1899000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4990000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1160000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1057000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>939000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1192000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>937000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1150000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>789000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>864000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>931000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1208000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,13 +1164,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>2700000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -1161,11 +1181,11 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
         <v>11000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1182,8 +1202,8 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1200,8 +1220,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>24</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>24</v>
@@ -1209,8 +1229,8 @@
       <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6393000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6304000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3579000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3971000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3533000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4770000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4576000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8126000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3146000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4786000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7077000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3255000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3044000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4651000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2973000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3368000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2935000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3658000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2887000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2738000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3275000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E18" s="3">
         <v>940000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3842000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2246000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2890000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2651000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2001000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2402000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1093000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2430000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2237000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1144000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2623000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2280000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2153000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2291000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3812000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4254000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3767000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4045000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E20" s="3">
         <v>57000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-154000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-173000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-369000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-570000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-940000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>250000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-158000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1051000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>222000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>228000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>367000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>129000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>305000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>72000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>170000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>132000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>150000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>130000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>111000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>140000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1532000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4211000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2592000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2994000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2508000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1416000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2593000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2494000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-904000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3006000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2963000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3286000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2708000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2680000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2820000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4259000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4682000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4172000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4477000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1633,212 +1673,221 @@
         <v>238000</v>
       </c>
       <c r="E22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="F22" s="3">
         <v>250000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>256000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>257000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>267000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>236000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>240000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>241000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>243000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>250000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>248000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>254000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>257000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>264000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>266000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>290000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>297000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>291000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>269000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>261000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>265000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E23" s="3">
         <v>759000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3438000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1817000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2264000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1814000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>825000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2003000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1901000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2410000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2350000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2664000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2086000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2033000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2126000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3671000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4115000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3617000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3920000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E24" s="3">
         <v>383000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>852000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>542000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>270000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>472000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>373000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>465000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-788000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-333000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>535000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>382000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>999000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>565000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>277000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>494000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>470000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>959000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1046000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>918000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>821000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>376000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2586000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1517000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1722000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1544000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>353000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1538000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2689000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1875000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1968000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2099000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1809000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1539000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1656000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2712000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3069000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2699000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3099000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>382000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2592000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1522000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1729000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1551000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>360000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2696000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1880000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1975000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2097000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1807000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1538000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1627000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2718000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3073000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2702000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3108000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,31 +2179,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2162,23 +2223,23 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>10000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-57000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>154000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>173000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>369000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>570000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>940000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-250000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>158000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-222000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-228000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-367000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-305000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-72000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-170000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-132000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-150000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-130000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-111000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>382000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2592000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1522000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1729000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1551000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>360000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1551000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2696000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1880000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1975000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2097000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1817000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1538000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2718000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3073000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2702000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3108000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>382000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2592000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1522000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1729000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1551000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>360000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1551000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2696000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1880000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1975000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2097000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1817000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1538000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2718000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3073000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2702000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3108000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,647 +2834,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4296000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5338000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4362000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4893000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4065000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5997000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12886000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6746000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10051000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11631000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9474000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11240000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16927000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17940000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14569000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13234000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7643000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7588000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11508000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8712000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10285000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8229000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1182000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1376000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1632000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1601000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1411000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11089000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12168000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10734000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12721000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13382000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15943000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10977000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12149000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13897000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12683000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16355000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17922000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16879000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12384000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3830000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3747000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3787000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4493000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4566000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4149000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3925000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4892000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3913000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3194000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3907000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3582000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3315000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3396000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3283000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3327000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3465000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3541000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3775000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3851000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4122000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4478000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4034000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4514000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1618000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1676000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1772000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1779000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1683000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1008000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1052000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>986000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>922000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>882000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>884000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>898000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>814000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>816000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>859000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>885000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>801000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1144000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1408000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1474000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1587000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2141000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2011000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1479000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1908000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2013000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2030000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1483000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1272000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1440000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1308000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2264000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1939000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2171000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2411000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1661000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1664000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1610000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1801000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3960000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12629000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14772000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13991000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13925000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13278000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15996000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30926000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24643000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26950000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30296000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28361000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33727000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34024000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35836000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34918000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32728000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30258000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31823000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35317000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28592000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21424000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19588000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1309000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1099000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>836000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>579000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>502000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2074000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2276000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3529000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1488000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2195000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3051000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2221000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2378000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5739000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8104000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11194000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12996000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15517000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19902000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20495000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5253000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5121000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5037000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4996000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4990000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5613000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4810000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4653000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4564000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5170000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5037000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4753000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4571000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4006000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3791000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3659000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3415000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3295000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3100000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3012000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2922000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2865000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38645000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41787000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42232000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42675000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43115000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41234000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17056000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17342000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17619000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17903000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18981000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19269000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19555000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19855000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20431000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20620000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20962000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21259000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9514000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9723000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9933000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10143000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4963000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4739000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5552000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5530000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5062000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6012000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7020000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7079000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6770000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4572000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2410000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2466000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2555000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2787000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2609000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2642000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2712000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3735000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3419000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3520000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4309000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63080000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67952000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67098000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67984000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67492000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>68407000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60878000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55934000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59741000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61627000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59146000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63210000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62837000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63675000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64305000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65355000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65381000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70283000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>64662000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60263000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57701000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56977000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,139 +3926,143 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E57" s="3">
         <v>705000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>585000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>608000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>570000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>844000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>527000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>532000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>590000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>713000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>632000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>617000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>577000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>790000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>580000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>623000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>711000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>814000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>696000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>819000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>944000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1206000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1516000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2511000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2261000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2259000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2757000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1498000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2999000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1999000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2499000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2498000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1999000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2498000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2748000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2747000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2998000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2497000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2747000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1747000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -3936,294 +4070,309 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6950000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9389000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7149000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7345000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6876000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7796000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7484000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7033000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6290000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6547000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6437000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6345000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6322000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7067000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6789000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7291000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7462000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8074000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7154000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7673000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7338000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8302000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8558000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11610000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10245000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10214000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9705000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11397000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9509000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10564000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8879000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9759000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9567000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8961000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9397000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10605000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10116000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10912000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10670000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11635000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9597000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8492000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8282000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9218000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25183000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25179000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25175000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27914000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27907000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>28645000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27792000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21103000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22098000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22094000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22090000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24084000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24080000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24574000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24570000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26062000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26557000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30795000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27515000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26296000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26321000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26346000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9424000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10099000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10207000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10146000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10916000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10144000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6106000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6125000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6585000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7124000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6753000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7414000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6962000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6612000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6647000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7503000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7352000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2296000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2384000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2181000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2050000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43153000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46883000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45628000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48281000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48540000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50205000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43433000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37907000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37674000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39102000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38542000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40594000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40886000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42288000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41444000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43683000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44790000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49841000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39817000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>37586000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>37260000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38090000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14986000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16324000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16903000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15392000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14821000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14381000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13709000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14445000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18709000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19388000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17616000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19829000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19326000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19024000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20706000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19825000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19196000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19012000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23689000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21823000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19564000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18154000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19927000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21069000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21470000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19703000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18952000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17445000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18027000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22067000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22525000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20604000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22616000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21951000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21387000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22861000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21672000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20591000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20442000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24845000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22677000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20441000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18887000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>382000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2592000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1522000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1729000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1551000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>360000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1551000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2696000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1880000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1975000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2097000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1817000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1538000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2718000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3073000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2702000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3108000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E83" s="3">
         <v>535000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>523000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>519000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>473000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>427000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>355000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>349000</v>
       </c>
       <c r="K83" s="3">
         <v>349000</v>
       </c>
       <c r="L83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="M83" s="3">
         <v>350000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>347000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>348000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>359000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>358000</v>
       </c>
       <c r="Q83" s="3">
         <v>358000</v>
       </c>
       <c r="R83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="S83" s="3">
         <v>356000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>357000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>397000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>297000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>298000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>294000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>292000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1840000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3205000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3253000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2316000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2610000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1916000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2250000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2566000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1436000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2580000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2645000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2342000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1577000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2345000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2212000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1573000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2270000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2753000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2694000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3526000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2925000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3539000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-247000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-156000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-119000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-165000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-181000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-155000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-171000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-203000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-185000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-237000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-248000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-167000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-297000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-212000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-220000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-129000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-123000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-118000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-338000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1070000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-278000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-234000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-577000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-271000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-344000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>431000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-111000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2735000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2025000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5241000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4354000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>307000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-945000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-894000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-900000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-894000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-917000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-858000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-861000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-856000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-874000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-801000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-804000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-800000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-817000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-736000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-742000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-740000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-682000</v>
       </c>
       <c r="U96" s="3">
         <v>-682000</v>
       </c>
       <c r="V96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-680000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-687000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-619000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1794000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-931000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>131000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4124000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-874000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-896000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3347000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2170000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-880000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-23000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>41000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>37000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-61000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>42000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-71000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>46000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>27000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>68000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-96000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1042000</v>
+      </c>
+      <c r="E102" s="3">
         <v>976000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-531000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>828000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6140000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2157000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3371000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1335000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5591000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2796000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2056000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6260000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6590000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7244000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7421000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6217000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6423000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7421000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6577000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5143000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5548000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5879000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5604000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5685000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5281000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5795000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5596000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5648000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5088000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5949000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6512000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7141000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6505000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7320000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1424000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2627000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1223000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1390000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1361000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1398000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1141000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1064000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>969000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1683000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1035000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>957000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1570000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1086000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1196000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1001000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1256000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1032000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1126000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>957000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1075000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4818000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5166000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4617000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6198000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4827000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5062000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6023000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5436000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4079000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4579000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4196000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4569000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4685000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4324000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4225000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4510000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4452000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4087000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4693000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5480000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6015000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5548000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6245000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1186000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2027000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1166000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1230000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1117000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1642000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2329000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5823000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1101000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1899000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4990000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1160000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1057000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1950000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>939000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1192000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>937000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1150000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>789000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>864000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>931000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1208000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,16 +1184,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1184,11 +1204,11 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>11000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1205,8 +1225,8 @@
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1223,8 +1243,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>24</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>24</v>
@@ -1232,8 +1252,8 @@
       <c r="W14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4231000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6393000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6304000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3579000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3971000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3533000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4770000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4576000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8126000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3146000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4786000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7077000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3255000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4651000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2973000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3368000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2935000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3658000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2887000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2738000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3275000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="E18" s="3">
         <v>197000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>940000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3842000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2246000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2890000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2651000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2001000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2402000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1093000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2430000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2237000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1144000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2623000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2280000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2153000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2291000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3812000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4254000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3767000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4045000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-111000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>57000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-154000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-173000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-369000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-570000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-940000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>250000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-158000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1051000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>222000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>228000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>367000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>129000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>305000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>72000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>170000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>132000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>150000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>130000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>111000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>140000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E21" s="3">
         <v>611000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1532000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4211000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2592000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2994000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2508000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1416000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2593000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2494000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-904000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3006000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2963000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1631000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3286000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2708000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2680000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2820000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4259000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4682000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4172000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4477000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>238000</v>
+        <v>242000</v>
       </c>
       <c r="E22" s="3">
         <v>238000</v>
       </c>
       <c r="F22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="G22" s="3">
         <v>250000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>256000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>257000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>267000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>236000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>240000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>241000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>243000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>250000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>248000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>254000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>257000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>264000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>266000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>290000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>297000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>291000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>269000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>261000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>265000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1503000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-152000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>759000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3438000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1817000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2264000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1814000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>825000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2003000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1901000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2410000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1016000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2664000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2086000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2033000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2126000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3671000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4115000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3617000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3920000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-164000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>383000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>852000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>542000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>270000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>472000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>373000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>465000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-788000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-333000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>535000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>382000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>999000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>565000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>277000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>494000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>470000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>959000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1046000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>918000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>821000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>376000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2586000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1517000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1722000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1544000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>353000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1538000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2689000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1875000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1968000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2099000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1809000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1539000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1656000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2712000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3069000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2699000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3099000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>382000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2592000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1522000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1729000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>360000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1551000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2696000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1880000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2097000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1807000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1538000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1627000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2718000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3073000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2702000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3108000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2208,8 +2269,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2226,23 +2287,23 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-14000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>10000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E32" s="3">
         <v>111000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-57000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>154000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>173000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>369000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>570000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>940000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-250000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>158000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-222000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-228000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-367000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-129000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-305000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-72000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-170000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-132000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-150000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-130000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-111000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>382000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2592000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1522000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1729000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1551000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>360000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1551000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2696000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1880000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2097000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1817000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1538000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2718000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3073000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2702000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3108000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>382000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2592000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1522000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1729000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1551000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>360000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1551000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2696000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1880000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2097000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1817000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1538000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2718000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3073000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2702000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3108000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,674 +2921,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4296000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5338000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4362000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4893000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4065000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5997000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12886000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6746000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10051000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11631000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9474000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11240000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16927000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17940000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14569000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13234000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7643000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7588000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11508000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8712000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10285000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8229000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1029000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1182000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1376000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1632000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1601000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1411000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>11089000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12168000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10734000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12721000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13382000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15943000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10977000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12149000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13897000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12683000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16355000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17922000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16879000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12384000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3830000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3747000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4118000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3787000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4493000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4566000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4149000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3925000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4892000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3913000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3194000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3907000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3582000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3315000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3396000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3283000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3327000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3465000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3541000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3775000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3851000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4122000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4478000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4034000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4514000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1482000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1618000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1676000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1772000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1779000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1683000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1008000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1052000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>986000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>922000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>882000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>884000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>898000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>814000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>816000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>859000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>885000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>801000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1144000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1408000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1474000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1587000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2035000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2141000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2011000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1479000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1908000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2013000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2030000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1483000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1272000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1440000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1308000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2264000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1606000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2171000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2411000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1661000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1664000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1610000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1801000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3960000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13175000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12629000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14772000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13991000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13925000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13278000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15996000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30926000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24643000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26950000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30296000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28361000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33727000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34024000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35836000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34918000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32728000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30258000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31823000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35317000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28592000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21424000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19588000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1427000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1309000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1099000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>836000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>579000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>502000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2074000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2276000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3529000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1488000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2195000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3051000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2221000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1423000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2378000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5739000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8104000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11194000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12996000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15517000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19902000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20495000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5299000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5253000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5121000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5037000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4996000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4990000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5613000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4810000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4653000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4564000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5170000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5037000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4753000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4571000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4006000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3791000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3659000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3415000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3295000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3100000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3012000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2922000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2865000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38199000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38645000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41787000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42232000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42675000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43115000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41234000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17056000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17342000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17619000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17903000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18981000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19269000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19555000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19855000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20431000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20620000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20962000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>21259000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9514000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9723000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9933000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10143000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4860000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4963000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4739000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5552000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5530000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5062000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6012000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7020000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7079000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6770000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4572000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2410000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2466000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2555000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2787000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2609000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2642000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2712000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3735000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3419000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3520000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4309000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62870000</v>
+      </c>
+      <c r="E54" s="3">
         <v>63080000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67952000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67098000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67984000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67492000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68407000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60878000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55934000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59741000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61627000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59146000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63210000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62837000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63675000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>64305000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65355000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65381000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70283000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>64662000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60263000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>57701000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56977000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,145 +4057,149 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E57" s="3">
         <v>583000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>705000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>585000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>608000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>570000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>844000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>527000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>590000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>713000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>632000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>617000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>577000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>790000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>580000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>623000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>711000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>814000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>696000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>819000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>944000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1206000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1025000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1516000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2511000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2261000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2259000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2757000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1498000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2999000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1999000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2499000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2498000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1999000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2498000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2748000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2747000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2998000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2497000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2747000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1747000</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
@@ -4073,306 +4207,321 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7634000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6950000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9389000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7149000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7345000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6876000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7796000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7484000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7033000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6290000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6547000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6437000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6345000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6322000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7067000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6789000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7291000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7462000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8074000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7154000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7673000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7338000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8302000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8558000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11610000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10245000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10214000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9705000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11397000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9509000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10564000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8879000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9759000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9567000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8961000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9397000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10605000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10116000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10912000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10670000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11635000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9597000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8492000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8282000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9218000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25195000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25183000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25179000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25175000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27914000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27907000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28645000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27792000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21103000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22098000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22094000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22090000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24084000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24080000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24574000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24570000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26062000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26557000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30795000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27515000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26296000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26321000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>26346000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8240000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9424000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10099000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10207000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10146000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10916000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10144000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6106000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6125000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6585000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7124000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6753000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7414000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6962000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6612000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6647000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7503000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7352000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2296000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2384000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2181000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2050000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42634000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43153000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46883000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45628000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48281000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48540000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50205000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43433000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37907000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37674000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39102000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38542000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40594000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40886000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42288000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41444000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43683000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44790000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49841000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39817000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>37586000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>37260000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38090000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15117000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14986000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16324000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16903000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15392000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14821000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14381000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13709000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14445000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18709000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19388000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17616000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19829000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19326000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19024000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20706000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19825000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19196000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19012000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23689000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21823000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19564000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18154000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20236000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19927000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21069000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21470000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19703000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18952000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17445000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18027000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22067000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22525000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20604000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22616000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21951000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21387000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22861000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21672000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20591000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20442000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24845000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22677000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20441000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18887000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>382000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2592000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1522000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1729000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1551000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>360000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1551000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2696000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1880000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2097000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1817000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1538000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2718000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3073000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2702000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3108000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,73 +5824,76 @@
         <v>525000</v>
       </c>
       <c r="E83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="F83" s="3">
         <v>535000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>523000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>519000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>473000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>427000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>355000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>349000</v>
       </c>
       <c r="L83" s="3">
         <v>349000</v>
       </c>
       <c r="M83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="N83" s="3">
         <v>350000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>347000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>348000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>359000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>358000</v>
       </c>
       <c r="R83" s="3">
         <v>358000</v>
       </c>
       <c r="S83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="T83" s="3">
         <v>356000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>357000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>397000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>297000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>298000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>294000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>292000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1802000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1840000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3205000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3253000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2316000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2610000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1916000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2250000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2566000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1436000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2580000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2645000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2342000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2345000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2212000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1573000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2270000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2753000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2694000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3526000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2925000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3539000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-247000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-156000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-139000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-119000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-165000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-181000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-155000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-143000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-171000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-203000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-185000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-248000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-167000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-297000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-212000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-220000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-129000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-123000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-338000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-278000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-234000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-577000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-271000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-344000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>431000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2735000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2025000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5241000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4354000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>307000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-920000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-945000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-894000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-900000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-894000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-917000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-858000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-861000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-856000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-874000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-801000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-804000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-800000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-817000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-736000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-742000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-740000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-682000</v>
       </c>
       <c r="V96" s="3">
         <v>-682000</v>
       </c>
       <c r="W96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-680000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-687000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-619000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1003000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-931000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>131000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4124000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-874000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-896000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3347000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2170000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-880000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>41000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-61000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>42000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-71000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>46000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>68000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-96000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>976000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-531000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>828000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6140000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2157000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3371000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1335000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5591000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>55000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2796000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2056000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7042000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6260000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6590000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7244000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7421000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6217000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6423000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7421000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6577000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5143000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5548000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5879000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5604000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5685000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5795000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5596000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5648000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5088000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5949000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6512000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7141000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6505000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7320000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1442000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1424000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2627000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1223000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1390000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1361000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1398000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1141000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1064000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>969000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1683000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1035000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>957000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1570000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1086000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1196000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1001000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1256000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1032000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1126000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>957000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1075000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5647000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4818000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5166000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4617000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6198000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4827000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5062000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6023000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5436000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4079000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4579000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4196000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4569000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4685000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4324000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4225000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4510000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4452000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4087000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4693000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5480000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6015000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5548000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6245000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1046,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1432000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1186000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2027000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1166000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1230000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1117000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1642000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2329000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5823000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1101000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1899000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4990000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1057000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1950000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>939000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1192000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>937000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1150000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>789000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>864000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>931000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1208000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1207,11 +1227,11 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>11000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1228,8 +1248,8 @@
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1246,8 +1266,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>24</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>24</v>
@@ -1255,8 +1275,8 @@
       <c r="X14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4205000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4231000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6393000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6304000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3579000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3971000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3533000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4770000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4576000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8126000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3146000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4786000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7077000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3255000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3044000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4651000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2973000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3368000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2935000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3658000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2887000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2738000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3275000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2837000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2029000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>197000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>940000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3842000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2246000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2890000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2651000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2001000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2402000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1093000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2430000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2237000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1144000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2623000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2280000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2153000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2291000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3812000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4254000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3767000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4045000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-284000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-111000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>57000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-154000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-173000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-369000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-570000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-940000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>250000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-158000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1051000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>222000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>228000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>367000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>129000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>305000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>72000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>170000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>132000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>150000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>130000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>111000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>140000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3186000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2270000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>611000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1532000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4211000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2592000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2994000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2508000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1416000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2593000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2494000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-904000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3006000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2963000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1631000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3286000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2708000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2680000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2820000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4259000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4682000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4172000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4477000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E22" s="3">
         <v>242000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>238000</v>
       </c>
       <c r="F22" s="3">
         <v>238000</v>
       </c>
       <c r="G22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="H22" s="3">
         <v>250000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>256000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>257000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>267000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>236000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>240000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>241000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>243000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>250000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>248000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>254000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>257000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>264000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>266000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>290000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>297000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>291000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>269000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>261000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>265000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2432000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1503000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-152000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>759000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3438000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1817000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2264000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1814000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>825000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2003000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1901000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2350000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1016000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2664000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2086000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2033000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2126000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3671000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4115000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3617000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3920000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E24" s="3">
         <v>368000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-164000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>383000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>852000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>542000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>270000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>472000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>373000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>465000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-788000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-333000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>535000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>382000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>999000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>565000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>277000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>494000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>470000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>959000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1046000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>918000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>821000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1786000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1135000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>376000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2586000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1517000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1722000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1544000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>353000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1538000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2689000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1968000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2099000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1809000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1539000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1656000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2712000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3069000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2699000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3099000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1144000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>382000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2592000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1522000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1729000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1551000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>360000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1551000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2696000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1975000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2097000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1807000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1538000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1627000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2718000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2702000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3108000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2272,8 +2333,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2290,23 +2351,23 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-14000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>10000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E32" s="3">
         <v>284000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>111000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-57000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>154000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>173000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>369000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>570000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>940000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-250000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>158000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-222000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-228000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-367000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-129000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-305000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-72000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-170000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-132000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-150000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-130000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-111000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1144000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>382000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2592000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1522000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1729000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1551000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>360000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1551000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2696000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1975000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2097000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1817000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1538000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2718000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2702000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3108000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1144000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>382000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2592000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1522000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1729000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1551000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>360000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1551000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2696000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1975000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2097000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1817000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1538000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2718000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2702000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3108000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,701 +3008,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4699000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4739000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4296000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5338000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4362000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4893000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4065000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5997000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12886000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6746000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10051000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11631000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9474000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11240000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16927000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17940000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14569000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13234000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7643000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7588000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11508000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8712000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10285000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8229000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>961000</v>
+      </c>
+      <c r="E42" s="3">
         <v>924000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1029000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1182000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1376000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1632000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1601000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1411000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11089000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12168000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10734000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12721000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13382000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15943000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10977000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12149000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13897000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12683000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16355000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17922000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>16879000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12384000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3830000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3747000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4354000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4118000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3787000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4493000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4566000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4149000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3925000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4892000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3913000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3194000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3907000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3582000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3315000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3396000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3283000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3327000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3465000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3541000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3775000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3851000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4122000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4478000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4034000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4514000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1494000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1482000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1618000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1676000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1772000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1779000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1683000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1008000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1052000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>986000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>922000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>882000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>884000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>898000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>814000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>816000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>859000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>885000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>801000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1144000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1408000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1474000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1587000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2077000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2035000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2141000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2011000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1479000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1908000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2013000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2030000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1483000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1272000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1440000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1308000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2264000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1939000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1606000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2171000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2411000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1600000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1661000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1664000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1610000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1801000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3960000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13554000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13175000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12629000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14772000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13991000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13925000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13278000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15996000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30926000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24643000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26950000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30296000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28361000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33727000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34024000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35836000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34918000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32728000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30258000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31823000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>35317000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>28592000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21424000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19588000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1337000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1427000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1309000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1099000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>836000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>579000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>502000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2074000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2276000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3529000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1488000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2195000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3051000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2221000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1423000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2378000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5739000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8104000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11194000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12996000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15517000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19902000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20495000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5349000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5299000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5253000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5121000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5037000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4996000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4990000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5613000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4810000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4653000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4564000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5170000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5037000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4753000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4571000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4006000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3791000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3659000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3415000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3295000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3100000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3012000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2922000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2865000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37754000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38199000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38645000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41787000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42232000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42675000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>43115000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41234000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17056000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17342000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17619000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17903000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18981000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19269000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19555000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19855000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20431000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20620000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20962000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>21259000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9514000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9723000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9933000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10143000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4860000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4963000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4739000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5552000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5530000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5062000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6012000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7020000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7079000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6770000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4572000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2466000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2555000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2787000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2609000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2642000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2712000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3735000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3419000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3520000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4309000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62557000</v>
+      </c>
+      <c r="E54" s="3">
         <v>62870000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63080000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67952000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67098000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67984000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67492000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68407000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60878000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55934000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59741000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61627000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59146000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63210000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62837000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63675000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>64305000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65355000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65381000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70283000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>64662000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>60263000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>57701000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56977000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,151 +4188,155 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E57" s="3">
         <v>565000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>583000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>705000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>585000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>608000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>570000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>844000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>527000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>590000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>713000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>632000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>617000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>577000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>790000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>580000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>623000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>711000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>814000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>696000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>819000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>944000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1206000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1021000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1025000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1516000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2511000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2261000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2259000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2757000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1498000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2999000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1999000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2499000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2498000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1999000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2498000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2748000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2747000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2998000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2497000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2747000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1747000</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
@@ -4210,318 +4344,333 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7539000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7634000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6950000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9389000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7149000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6876000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7796000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7484000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7033000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6290000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6547000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6437000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6345000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6322000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7067000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6789000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7291000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7462000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8074000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7154000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7673000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7338000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8302000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10423000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8558000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11610000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10245000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10214000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9705000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11397000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9509000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10564000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8879000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9759000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9567000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8961000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9397000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10605000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10116000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10912000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10670000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11635000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9597000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8492000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8282000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9218000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22953000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25195000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25183000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25179000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25175000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27914000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27907000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28645000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27792000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21103000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22098000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22094000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22090000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24084000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24080000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24574000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24570000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26062000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26557000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30795000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27515000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26296000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>26321000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>26346000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8124000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8240000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9424000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10099000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10207000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10146000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10916000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10144000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6106000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6125000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6585000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7124000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6753000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7414000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6962000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6612000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6647000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7503000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7352000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2296000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2384000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2181000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2050000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41476000</v>
+      </c>
+      <c r="E66" s="3">
         <v>42634000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43153000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46883000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45628000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48281000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48540000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50205000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43433000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37907000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37674000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39102000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38542000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40594000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40886000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42288000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41444000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43683000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>44790000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49841000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39817000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>37586000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>37260000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>38090000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15756000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15117000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14986000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16324000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16903000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15392000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14821000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14381000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13709000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14445000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18709000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19388000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17616000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19829000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19326000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19024000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20706000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19825000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19196000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19012000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23689000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21823000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19564000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18154000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21081000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20236000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19927000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21069000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21470000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19703000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18952000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18202000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17445000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18027000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22067000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22525000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20604000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22616000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21951000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21387000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22861000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21672000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20591000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20442000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24845000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22677000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20441000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18887000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1144000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>382000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2592000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1522000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1729000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1551000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>360000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1551000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2696000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1975000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2097000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1817000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1538000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2718000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2702000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3108000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5827,73 +6026,76 @@
         <v>525000</v>
       </c>
       <c r="F83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="G83" s="3">
         <v>535000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>523000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>519000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>473000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>427000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>355000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>349000</v>
       </c>
       <c r="M83" s="3">
         <v>349000</v>
       </c>
       <c r="N83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="O83" s="3">
         <v>350000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>347000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>348000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>359000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>358000</v>
       </c>
       <c r="S83" s="3">
         <v>358000</v>
       </c>
       <c r="T83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="U83" s="3">
         <v>356000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>357000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>397000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>297000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>298000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>294000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>292000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1802000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1840000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3205000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3253000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2316000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2610000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1916000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2250000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2566000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1436000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2580000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2645000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2342000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1577000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2345000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2212000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1573000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2270000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2753000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2694000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3526000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2925000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3539000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-247000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-156000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-119000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-165000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-181000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-155000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-143000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-171000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-203000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-237000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-248000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-167000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-297000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-212000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-220000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-129000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-123000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-338000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-713000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-308000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-278000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-234000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-577000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-271000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-344000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>431000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-111000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2735000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2025000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5241000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4354000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>307000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-929000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-920000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-945000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-894000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-900000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-894000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-917000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-858000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-861000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-856000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-874000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-801000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-804000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-800000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-817000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-736000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-742000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-740000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-682000</v>
       </c>
       <c r="W96" s="3">
         <v>-682000</v>
       </c>
       <c r="X96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-680000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-687000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-619000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2118000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1003000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-931000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>131000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4124000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-874000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-896000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3347000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2170000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-880000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-48000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>41000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>37000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-61000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>42000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-55000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-71000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>46000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>27000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>68000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E102" s="3">
         <v>443000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>976000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-531000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>828000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6140000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2157000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3371000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1335000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5591000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>55000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2796000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2056000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7389000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7042000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6260000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6590000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7244000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7421000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6217000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6423000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7421000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6577000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5143000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5548000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5879000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5604000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5685000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5795000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5596000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5648000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5088000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5949000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6512000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7141000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6505000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7320000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1395000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1442000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1424000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2627000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1223000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1390000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1361000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1398000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1141000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1064000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>969000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1683000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1035000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>957000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1570000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1086000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1196000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1001000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1256000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1032000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1126000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>957000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1075000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5993000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5647000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4818000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5166000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4617000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6198000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4827000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5062000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6023000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5436000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4079000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4579000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4196000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4569000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4685000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4324000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4225000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4510000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4452000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4087000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4693000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5480000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6015000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5548000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6245000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1597000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1432000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1186000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2027000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1166000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1230000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1117000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1642000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2329000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5823000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1101000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1899000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4990000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1160000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1057000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1950000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>939000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1192000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>937000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1150000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>789000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>864000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>931000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1208000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1230,11 +1249,11 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>11000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>24</v>
@@ -1251,8 +1270,8 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1269,8 +1288,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>24</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>24</v>
@@ -1278,8 +1297,8 @@
       <c r="Y14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1287,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5122000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4205000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4231000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6393000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6304000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3579000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3971000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3533000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4770000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4576000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8126000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3146000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4786000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7077000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3255000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3044000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4651000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2973000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3368000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2935000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3658000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2887000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2738000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3275000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2267000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2837000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2029000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>197000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>940000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3842000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2246000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2890000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2651000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2001000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2402000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1093000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2430000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2237000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1144000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2623000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2280000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2153000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2291000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3812000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4254000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3767000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4045000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1584,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-176000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-284000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-111000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>57000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-154000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-173000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-369000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-570000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-940000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>250000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-158000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1051000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>222000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>228000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>367000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>129000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>305000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>72000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>170000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>132000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>150000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>130000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>111000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>140000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2785000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3186000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2270000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>611000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1532000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4211000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2592000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2994000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2508000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1416000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2593000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2494000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-904000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3006000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2963000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1631000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3286000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2708000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2680000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2820000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4259000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4682000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4172000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4477000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E22" s="3">
         <v>229000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>242000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>238000</v>
       </c>
       <c r="G22" s="3">
         <v>238000</v>
       </c>
       <c r="H22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="I22" s="3">
         <v>250000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>256000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>257000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>267000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>236000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>240000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>241000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>243000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>250000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>248000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>254000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>257000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>264000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>266000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>290000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>297000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>291000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>269000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>261000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>265000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2031000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2432000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1503000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-152000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>759000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3438000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1817000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2264000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1814000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>825000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2003000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1901000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2410000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2350000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1016000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2664000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2086000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2033000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2126000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3671000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4115000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3617000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3920000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E24" s="3">
         <v>646000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>368000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-164000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>383000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>852000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>542000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>270000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>472000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>373000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>465000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-788000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-333000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>535000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>382000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>999000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>565000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>277000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>494000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>470000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>959000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1046000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>918000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>821000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1786000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1135000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>376000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2586000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1517000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1722000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1544000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>353000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1538000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2689000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1875000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1968000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2099000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1809000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1539000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1656000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2712000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3069000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2699000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3099000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1789000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1144000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>382000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2592000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1522000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1729000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>360000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2696000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1880000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1975000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2097000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1807000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1538000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1627000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2718000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2702000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3108000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2336,8 +2396,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2354,23 +2414,23 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-14000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>10000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>176000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>284000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>111000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-57000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>154000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>173000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>369000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>570000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>940000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-250000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>158000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-222000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-228000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-367000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-129000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-305000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-72000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-170000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-132000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-150000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-130000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-111000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1789000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1144000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>382000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2592000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1522000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1729000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1551000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>360000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2696000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1880000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1975000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2097000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1817000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1538000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2718000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2702000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3108000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1789000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1144000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>382000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2592000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1522000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1729000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1551000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>360000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2696000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1880000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1975000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2097000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1817000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1538000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2718000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2702000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3108000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,728 +3094,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5412000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4699000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4739000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4296000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5338000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4362000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4893000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4065000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5997000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12886000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6746000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10051000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11631000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9474000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11240000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16927000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17940000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14569000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13234000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7643000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7588000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11508000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8712000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10285000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8229000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E42" s="3">
         <v>961000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>924000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1029000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1182000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1376000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1632000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1601000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1411000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11089000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12168000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10734000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12721000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13382000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15943000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10977000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12149000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13897000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12683000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16355000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>17922000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16879000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12384000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3830000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3747000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4777000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4354000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4118000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3787000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4493000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4566000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4149000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3925000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4892000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3913000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3194000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3907000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3582000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3315000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3396000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3283000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3327000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3465000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3541000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3775000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3851000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4122000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4478000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4034000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4514000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1463000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1494000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1482000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1618000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1676000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1772000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1779000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1683000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1008000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1052000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>986000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>922000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>882000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>884000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>898000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>814000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>816000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>859000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>885000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>801000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1144000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1408000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1474000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1587000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2077000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2035000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2141000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2011000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1479000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1908000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2013000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2030000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1483000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1272000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1440000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1308000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2264000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1939000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1606000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2171000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2411000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1661000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1664000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1610000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1801000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3960000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14443000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13554000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13175000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12629000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14772000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13991000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13925000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13278000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15996000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30926000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24643000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26950000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30296000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28361000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33727000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34024000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35836000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34918000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32728000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30258000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31823000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>35317000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>28592000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21424000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>19588000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1282000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1337000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1427000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1309000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1099000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>836000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>579000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>502000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2074000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2276000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3529000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1488000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2195000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3051000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2221000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1423000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2378000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5739000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8104000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11194000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12996000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>15517000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19902000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>20495000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5475000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5349000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5299000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5253000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5121000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5037000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4996000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4990000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5613000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4810000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4653000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4564000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5170000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5037000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4753000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4571000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4006000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3791000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3659000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3415000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3295000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3100000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3012000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2922000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2865000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37208000</v>
+      </c>
+      <c r="E49" s="3">
         <v>37754000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38199000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38645000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41787000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42232000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42675000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>43115000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41234000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17056000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17342000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17619000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17903000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18981000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19269000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19555000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19855000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20431000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20620000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20962000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>21259000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9514000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9723000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9933000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>10143000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4618000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4860000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5126000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4963000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4739000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5552000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5530000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5062000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6012000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7020000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7079000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6770000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4572000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2410000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2466000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2555000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2787000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2609000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2642000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2712000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3735000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3419000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3520000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4309000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63171000</v>
+      </c>
+      <c r="E54" s="3">
         <v>62557000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62870000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63080000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67952000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67098000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67984000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67492000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68407000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60878000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55934000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59741000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61627000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59146000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63210000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>62837000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63675000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64305000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65355000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65381000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70283000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>64662000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>60263000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>57701000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56977000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,157 +4318,161 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E57" s="3">
         <v>614000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>565000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>583000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>705000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>585000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>608000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>570000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>844000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>527000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>532000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>590000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>713000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>632000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>617000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>577000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>790000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>580000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>623000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>711000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>814000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>696000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>819000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>944000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1206000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2270000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1021000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1025000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1516000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2511000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2261000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2259000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2757000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1498000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2999000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1999000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2499000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2498000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1999000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2498000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2748000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2747000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2998000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2497000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2747000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1747000</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
@@ -4347,330 +4480,345 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8059000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7539000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7634000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6950000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9389000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7149000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6876000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7796000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7484000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7033000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6290000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6547000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6437000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6345000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6322000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7067000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6789000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7291000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7462000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8074000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7154000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7673000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7338000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8302000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11237000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10423000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8558000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11610000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10245000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10214000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9705000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11397000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9509000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10564000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8879000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9759000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9567000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8961000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9397000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10605000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10116000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10912000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10670000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11635000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9597000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8492000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8282000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9218000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22957000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22953000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25195000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25183000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25179000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25175000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27914000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27907000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28645000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27792000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21103000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22098000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22094000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22090000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24084000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24080000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24574000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24570000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26062000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26557000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30795000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27515000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>26296000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>26321000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>26346000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7768000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8124000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8240000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9424000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10099000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10207000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10146000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10916000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10144000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6106000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6125000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6585000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7124000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6753000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7414000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7269000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6962000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6612000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6647000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7503000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7352000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2296000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2384000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2181000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2050000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41931000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41476000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42634000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43153000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46883000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45628000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48281000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48540000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50205000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43433000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37907000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37674000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39102000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38542000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40594000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40886000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42288000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41444000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43683000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44790000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49841000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39817000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>37586000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>37260000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>38090000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15687000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15756000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15117000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14986000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16324000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16903000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15392000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14821000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14381000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13709000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14445000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18709000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19388000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17616000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19829000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19326000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19024000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20706000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19825000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19196000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19012000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23689000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21823000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19564000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18154000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21240000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21081000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20236000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19927000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21069000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21470000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19703000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18952000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18202000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17445000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18027000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22067000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22525000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20604000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22616000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21951000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21387000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22861000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21672000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20591000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20442000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24845000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22677000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20441000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18887000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1789000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1144000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>382000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2592000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1522000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1729000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1551000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>360000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2696000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1880000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1975000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2097000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1817000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1538000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2718000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2702000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3108000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,13 +6211,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>525000</v>
+        <v>528000</v>
       </c>
       <c r="E83" s="3">
         <v>525000</v>
@@ -6029,73 +6227,76 @@
         <v>525000</v>
       </c>
       <c r="G83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="H83" s="3">
         <v>535000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>523000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>519000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>473000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>427000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>355000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>349000</v>
       </c>
       <c r="N83" s="3">
         <v>349000</v>
       </c>
       <c r="O83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="P83" s="3">
         <v>350000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>347000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>348000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>359000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>358000</v>
       </c>
       <c r="T83" s="3">
         <v>358000</v>
       </c>
       <c r="U83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="V83" s="3">
         <v>356000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>357000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>397000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>297000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>298000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>294000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>292000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2863000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1802000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1840000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3205000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3253000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2316000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2610000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1916000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2250000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2566000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1436000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2580000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2645000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2342000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1577000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2345000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2212000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1573000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2270000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2753000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2694000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3526000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2925000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3539000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-157000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-247000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-156000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-139000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-165000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-181000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-155000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-143000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-171000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-203000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-185000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-237000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-248000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-167000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-297000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-212000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-220000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-129000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-123000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-118000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-338000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-713000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-308000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-278000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-234000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-577000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-271000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-344000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>431000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-111000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2735000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2025000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5241000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4354000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>307000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-915000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-929000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-920000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-945000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-894000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-900000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-894000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-917000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-858000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-861000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-856000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-874000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-801000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-804000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-800000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-817000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-736000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-742000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-740000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-682000</v>
       </c>
       <c r="X96" s="3">
         <v>-682000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-680000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-687000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-619000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1554000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2118000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1003000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-931000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>131000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4124000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-874000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-896000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3347000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2170000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-880000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-72000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>37000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-61000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>42000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-71000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>26000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>46000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>27000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>68000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>443000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>976000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-531000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>828000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6140000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2157000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3371000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1335000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5591000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>55000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2796000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2056000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6352000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7389000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7042000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6590000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7244000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7421000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6217000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6423000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7421000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6577000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5143000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5548000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5879000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5604000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5685000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5281000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5795000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5596000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5648000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5088000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5949000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6512000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7141000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6505000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7320000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1396000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1395000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1442000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1424000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2627000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1223000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1390000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1361000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1398000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1141000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1064000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>969000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1683000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1035000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>957000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1570000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1086000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1196000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1001000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1256000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1032000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1126000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>957000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1075000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4951000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5993000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5647000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4818000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5166000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4617000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6198000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4827000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5062000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6023000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5436000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4079000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4579000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4196000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4569000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4685000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4324000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4225000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4510000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4452000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4087000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4693000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5480000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6015000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5548000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6245000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1928000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1706000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1597000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1432000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1186000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2027000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1166000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1230000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1117000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1642000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2329000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5823000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1101000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1899000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4990000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1160000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1057000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1950000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>939000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1192000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>937000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1150000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>789000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>864000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>931000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1208000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1252,11 +1272,11 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>11000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
@@ -1273,8 +1293,8 @@
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1291,8 +1311,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>24</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>24</v>
@@ -1300,8 +1320,8 @@
       <c r="Z14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4647000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5122000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4205000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4231000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6393000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6304000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3579000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3971000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3533000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4770000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4576000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8126000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3146000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4786000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7077000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3255000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3044000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4651000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2973000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3368000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2935000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3658000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2887000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2738000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3275000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2267000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2837000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2029000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>197000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>940000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3842000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2246000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2890000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2651000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2001000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2402000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2430000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2237000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1144000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2623000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2280000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2153000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2291000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3812000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4254000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3767000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4045000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-176000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-284000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-111000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>57000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-154000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-173000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-369000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-570000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-940000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>250000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-158000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>222000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>228000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>367000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>129000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>305000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>72000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>170000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>132000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>150000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>130000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>111000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>140000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2170000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2785000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3186000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2270000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>611000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1532000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4211000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2592000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2994000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2508000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1416000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2593000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2494000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-904000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3006000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2963000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1631000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3286000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2708000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2680000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2820000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4259000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4682000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4172000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4477000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E22" s="3">
         <v>226000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>229000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>242000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>238000</v>
       </c>
       <c r="H22" s="3">
         <v>238000</v>
       </c>
       <c r="I22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="J22" s="3">
         <v>250000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>256000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>257000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>267000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>236000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>240000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>241000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>243000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>250000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>248000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>254000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>257000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>264000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>266000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>290000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>297000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>291000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>269000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>261000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>265000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2031000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2432000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1503000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-152000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>759000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3438000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1817000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2264000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1814000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>825000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2003000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2410000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2350000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1016000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2664000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2086000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2033000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2126000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3671000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4115000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3617000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3920000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E24" s="3">
         <v>398000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>646000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>368000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-164000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>383000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>852000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>542000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>270000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>472000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>373000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>465000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-788000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-333000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>535000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>382000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>999000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>565000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>277000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>494000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>470000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>959000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1046000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>918000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>821000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>984000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1633000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1786000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1135000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>376000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2586000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1517000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1722000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1544000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>353000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1538000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2689000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1875000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1968000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2099000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1809000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1539000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1656000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2712000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3069000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2699000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3099000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1640000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1789000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1144000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>382000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2592000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1522000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1729000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1551000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>360000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1551000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2696000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1880000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1975000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2097000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1807000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1538000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1627000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2718000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3073000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2702000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3108000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2399,8 +2460,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2417,23 +2478,23 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-14000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>10000</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>176000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>284000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>111000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-57000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>154000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>173000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>369000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>570000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>940000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-250000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>158000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-222000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-228000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-367000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-129000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-305000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-72000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-170000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-150000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-130000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-111000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1640000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1789000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1144000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>382000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2592000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1522000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1729000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1551000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>360000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1551000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2696000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1880000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1975000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2097000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1817000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1538000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2718000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3073000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2702000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3108000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1640000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1789000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1144000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>382000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2592000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1522000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1729000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1551000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>360000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1551000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2696000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1880000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1975000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2097000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1817000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1538000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2718000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3073000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2702000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3108000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,755 +3181,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4936000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5412000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4699000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4739000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4296000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5338000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4362000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4893000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4065000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5997000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12886000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6746000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10051000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11631000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9474000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11240000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16927000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17940000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14569000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13234000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7643000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7588000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11508000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8712000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10285000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8229000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E42" s="3">
         <v>973000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>961000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>924000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1029000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1182000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1376000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1632000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1601000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1411000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11089000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12168000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10734000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12721000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13382000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15943000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10977000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12149000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13897000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12683000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>16355000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>17922000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>16879000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12384000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3830000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3747000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4162000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4777000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4354000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4118000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3787000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4493000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4566000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4149000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3925000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4892000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3913000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3194000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3907000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3582000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3315000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3396000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3283000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3327000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3465000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3541000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3775000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3851000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4122000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4478000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4034000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4514000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1507000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1463000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1494000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1482000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1618000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1676000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1772000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1779000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1683000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1008000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1052000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>986000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>922000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>882000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>884000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>898000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>814000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>816000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>859000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>885000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>801000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1144000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1408000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1474000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1587000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1774000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2077000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2035000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2141000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2011000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1479000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1908000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2013000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2030000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1483000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1272000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1440000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1308000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2264000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1939000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1606000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2171000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2411000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1600000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1661000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1664000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1610000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1801000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3960000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13456000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14443000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13554000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13175000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12629000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14772000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13991000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13925000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13278000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15996000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30926000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24643000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26950000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30296000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28361000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33727000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34024000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35836000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34918000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32728000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30258000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31823000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>35317000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28592000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21424000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>19588000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1245000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1282000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1337000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1427000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1309000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1099000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>836000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>579000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>502000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2074000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2276000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3529000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1488000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2195000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3051000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2221000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1423000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2378000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5739000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8104000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11194000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12996000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>15517000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19902000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>20495000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5479000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5475000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5349000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5299000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5253000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5121000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5037000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4996000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4990000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5613000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4810000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4653000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4564000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5170000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5037000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4753000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4571000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4006000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3791000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3659000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3415000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3295000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3100000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3012000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2922000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2865000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36662000</v>
+      </c>
+      <c r="E49" s="3">
         <v>37208000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37754000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38199000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38645000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41787000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42232000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42675000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43115000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41234000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17056000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17342000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17619000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17903000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18981000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19269000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19555000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19855000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20431000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20620000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20962000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>21259000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9514000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9723000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9933000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>10143000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4618000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4860000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5126000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4963000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4739000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5552000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5530000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5062000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6012000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7020000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7079000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6770000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4572000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2410000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2466000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2555000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2787000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2609000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2642000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2712000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3735000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3419000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3520000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4309000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>63171000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62557000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62870000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63080000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67952000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67098000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67984000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67492000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68407000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60878000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55934000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59741000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61627000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59146000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63210000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62837000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63675000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>64305000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65355000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65381000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>70283000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>64662000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>60263000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>57701000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>56977000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,163 +4449,167 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E57" s="3">
         <v>905000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>614000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>565000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>583000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>705000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>585000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>608000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>570000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>844000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>527000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>532000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>590000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>713000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>632000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>617000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>577000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>790000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>580000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>623000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>711000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>814000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>696000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>819000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>944000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1206000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2283000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2273000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2270000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1021000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1025000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1516000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2511000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2261000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2259000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2757000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1498000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2999000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1999000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2499000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2498000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1999000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2498000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2748000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2747000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2998000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2497000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2747000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
@@ -4483,342 +4617,357 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7618000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8059000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7539000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7634000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6950000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9389000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7149000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6876000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7796000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7484000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7033000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6290000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6547000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6437000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6345000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6322000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7067000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6789000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7291000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7462000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8074000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7154000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7673000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7338000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8302000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10528000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11237000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10423000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8558000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11610000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10245000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9705000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11397000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9509000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10564000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8879000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9759000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9567000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8961000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9397000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10605000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10116000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10912000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10670000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11635000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9597000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8492000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8282000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9218000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22956000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22957000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22953000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25195000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25183000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25179000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25175000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27914000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27907000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28645000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27792000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21103000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22098000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22094000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22090000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24084000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24080000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24574000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24570000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26062000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26557000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30795000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>27515000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>26296000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>26321000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>26346000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7453000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7768000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8124000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8240000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9424000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10099000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10207000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10146000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10916000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10144000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6106000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6125000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6585000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7124000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6753000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7414000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7269000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6962000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6612000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6647000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7503000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7352000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2296000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2384000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2181000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2050000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40879000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41931000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41476000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42634000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43153000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46883000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45628000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48281000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48540000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50205000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43433000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37907000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37674000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39102000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38542000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40594000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40886000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42288000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41444000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43683000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44790000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49841000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>39817000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>37586000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>37260000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>38090000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15223000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15687000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15756000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15117000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14986000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16324000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16903000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15392000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14821000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14381000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13709000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14445000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18709000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19388000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17616000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19829000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19326000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19024000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20706000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19825000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19196000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19012000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23689000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21823000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19564000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>18154000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20997000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21240000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21081000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20236000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19927000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21069000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21470000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19703000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18952000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18202000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17445000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18027000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22067000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22525000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20604000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22616000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21951000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21387000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22861000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21672000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20591000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20442000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24845000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22677000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20441000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18887000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1640000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1789000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1144000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>382000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2592000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1522000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1729000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1551000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>360000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1551000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2696000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1880000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1975000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2097000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1817000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1538000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2718000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3073000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2702000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3108000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,16 +6410,17 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E83" s="3">
         <v>528000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>525000</v>
       </c>
       <c r="F83" s="3">
         <v>525000</v>
@@ -6230,73 +6429,76 @@
         <v>525000</v>
       </c>
       <c r="H83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="I83" s="3">
         <v>535000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>523000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>519000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>473000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>427000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>355000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>349000</v>
       </c>
       <c r="O83" s="3">
         <v>349000</v>
       </c>
       <c r="P83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>350000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>347000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>348000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>359000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>358000</v>
       </c>
       <c r="U83" s="3">
         <v>358000</v>
       </c>
       <c r="V83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="W83" s="3">
         <v>356000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>357000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>397000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>297000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>298000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>294000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>292000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1743000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2567000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2863000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1802000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1840000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3205000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3253000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2316000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2610000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1916000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2250000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2566000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1436000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2580000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2645000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2342000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1577000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2345000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2212000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1573000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2270000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2753000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2694000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3526000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2925000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3539000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-181000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-157000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-247000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-156000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-139000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-165000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-181000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-155000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-143000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-171000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-185000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-237000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-248000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-167000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-297000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-212000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-220000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-129000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-118000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-338000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-826000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-375000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-713000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-308000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-278000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-234000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-577000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-271000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-344000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>431000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-111000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2735000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2025000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5241000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4354000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>307000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-969000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-915000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-929000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-920000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-945000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-894000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-900000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-894000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-917000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-858000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-861000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-856000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-874000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-801000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-804000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-800000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-817000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-736000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-742000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-740000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-682000</v>
       </c>
       <c r="Y96" s="3">
         <v>-682000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-680000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-687000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-619000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1406000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2118000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1003000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-931000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>131000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4124000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-874000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-896000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3347000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2170000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-880000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>75000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-72000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>41000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>37000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-61000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>42000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-55000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-39000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-71000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>26000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>46000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>27000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>68000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="E102" s="3">
         <v>713000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>443000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>976000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-531000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>828000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6140000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2157000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3371000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1335000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5591000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>55000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2796000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2056000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>GILD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6599000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6352000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7389000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7042000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6590000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7244000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7421000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6217000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6423000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7421000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6577000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5143000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5548000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5879000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5604000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5685000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5795000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5596000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5648000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5088000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5949000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6512000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7141000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6505000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7320000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1401000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1396000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1395000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1442000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1424000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2627000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1223000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1390000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1361000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1398000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1141000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1064000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>969000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1683000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1035000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>957000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1570000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1086000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1196000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1001000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1256000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1032000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1126000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>957000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1075000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5157000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4951000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5993000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5647000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4818000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5166000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4617000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6198000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4827000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5062000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6023000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5436000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4079000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4579000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4196000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4569000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4685000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4324000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4225000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4510000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4452000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4087000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4693000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5480000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6015000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5548000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6245000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,94 +1087,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1928000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1706000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1597000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1432000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1186000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2027000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1166000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1230000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1117000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1642000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2329000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5823000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1899000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4990000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1160000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1057000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1950000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>939000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1192000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>937000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1150000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>789000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>864000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>931000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1208000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,13 +1263,16 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1264,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1275,11 +1295,11 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>11000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1296,8 +1316,8 @@
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1314,8 +1334,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>24</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>24</v>
@@ -1323,8 +1343,8 @@
       <c r="AA14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4934000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4647000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5122000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4205000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4231000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6393000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6304000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3579000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3971000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3533000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4770000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4576000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8126000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3146000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4786000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7077000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3255000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3044000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4651000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2973000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3368000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2935000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3658000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2887000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2738000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3275000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1705000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2267000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2837000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2029000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>197000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>940000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3842000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2246000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2890000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2651000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2001000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2402000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1093000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2430000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2237000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1144000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2623000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2280000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2153000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2291000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3812000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4254000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3767000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4045000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,180 +1684,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-175000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-176000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-284000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-111000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>57000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-154000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-173000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-369000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-570000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-940000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>250000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1051000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>222000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>228000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>367000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>129000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>305000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>72000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>170000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>132000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>150000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>130000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>111000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>140000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2170000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2785000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3186000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2270000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>611000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1532000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4211000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2592000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2994000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2508000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1416000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2593000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2494000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-904000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3006000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2963000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1631000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3286000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2708000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2680000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2820000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4259000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4682000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4172000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4477000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1832,257 +1872,266 @@
         <v>230000</v>
       </c>
       <c r="E22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F22" s="3">
         <v>226000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>229000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>242000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>238000</v>
       </c>
       <c r="I22" s="3">
         <v>238000</v>
       </c>
       <c r="J22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K22" s="3">
         <v>250000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>256000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>257000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>267000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>236000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>240000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>241000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>243000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>250000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>248000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>254000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>257000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>264000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>266000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>290000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>297000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>291000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>269000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>261000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>265000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2031000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2432000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1503000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-152000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>759000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3438000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1817000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2264000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1814000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>825000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2003000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1901000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2410000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2350000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1016000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2664000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2086000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2033000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2126000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3671000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4115000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3617000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3920000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E24" s="3">
         <v>316000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>398000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>646000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>368000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-164000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>383000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>852000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>542000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>270000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>472000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>373000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>465000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-788000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-333000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>535000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>382000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>999000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>565000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>277000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>494000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>470000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>959000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1046000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>918000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>821000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E26" s="3">
         <v>984000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1633000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1786000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1135000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>376000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2586000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1517000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1722000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1544000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>353000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2689000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1875000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1968000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2099000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1809000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1539000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1656000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2712000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3069000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2699000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3099000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1010000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1640000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1789000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1144000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>382000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2592000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1522000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1729000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1551000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>360000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2696000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1880000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1975000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2097000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1807000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1538000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1627000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2718000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3073000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2702000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3108000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2463,8 +2524,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2481,23 +2542,23 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-14000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>10000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E32" s="3">
         <v>175000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>176000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>284000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>111000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-57000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>154000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>173000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>369000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>570000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>940000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-250000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>158000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-222000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-228000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-367000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-129000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-305000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-72000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-170000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-150000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-130000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-111000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1010000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1640000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1789000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1144000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>382000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2592000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1522000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1729000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1551000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>360000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2696000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1880000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1975000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2097000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1817000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1538000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2718000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3073000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2702000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3108000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1010000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1640000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1789000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1144000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>382000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2592000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1522000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1729000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1551000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>360000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2696000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1880000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1975000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2097000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1817000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1538000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2718000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3073000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2702000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3108000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,782 +3268,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5704000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4936000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5412000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4699000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4739000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4296000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5338000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4362000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4893000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4065000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5997000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12886000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6746000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10051000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11631000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9474000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11240000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16927000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17940000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14569000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13234000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7643000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7588000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11508000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8712000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10285000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8229000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E42" s="3">
         <v>936000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>973000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>961000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>924000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1029000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1182000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1376000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1632000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1601000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1411000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11089000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12168000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10734000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12721000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13382000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15943000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10977000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12149000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13897000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12683000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16355000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>17922000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>16879000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12384000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3830000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3747000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4162000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4777000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4354000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4118000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3787000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4493000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4566000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4149000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3925000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4892000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3913000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3194000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3907000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3582000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3315000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3396000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3283000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3327000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3465000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3541000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3775000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3851000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4122000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4478000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4034000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4514000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1576000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1507000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1463000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1494000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1482000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1618000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1676000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1772000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1779000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1683000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1008000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1052000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>986000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>922000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>882000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>884000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>898000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>814000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>816000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>859000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>885000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>801000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1144000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1408000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1474000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1587000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1846000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1774000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2077000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2035000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2141000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2011000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1479000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1908000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2013000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2030000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1483000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1272000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1440000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1308000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2264000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1939000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1606000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2171000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2411000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1600000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1661000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1664000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1610000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1801000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3960000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14287000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13456000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14443000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13554000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13175000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12629000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14772000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13991000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13925000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13278000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15996000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24643000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26950000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30296000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28361000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33727000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34024000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35836000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34918000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>32728000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30258000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31823000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>35317000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>28592000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21424000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>19588000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1327000</v>
+        <v>2380000</v>
       </c>
       <c r="E47" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1245000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1282000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1337000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1427000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1309000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1099000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>836000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>579000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>502000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2074000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2276000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3529000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1488000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2195000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3051000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2221000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1423000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2378000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5739000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8104000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11194000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12996000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>15517000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19902000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>20495000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5540000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5479000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5475000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5349000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5299000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5253000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5121000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5037000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4996000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4990000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5613000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4810000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4653000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4564000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5170000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5037000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4753000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4571000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4006000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3791000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3659000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3415000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3295000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3100000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3012000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2922000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2865000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36064000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36662000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37208000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37754000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38199000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38645000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41787000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42232000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42675000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43115000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41234000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17056000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17342000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17619000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17903000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18981000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19269000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19555000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19855000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20431000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20620000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20962000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>21259000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9514000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9723000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>9933000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>10143000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4952000</v>
+        <v>4066000</v>
       </c>
       <c r="E52" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4800000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4618000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4860000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5126000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4963000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4739000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5552000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5530000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5062000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6012000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7020000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7079000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6770000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4572000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2410000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2466000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2555000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2787000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2609000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2642000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2712000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3735000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3419000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3520000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4309000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62337000</v>
+      </c>
+      <c r="E54" s="3">
         <v>61876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63171000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62557000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62870000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63080000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67952000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67098000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67984000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67492000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68407000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60878000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55934000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59741000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61627000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59146000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63210000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62837000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63675000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>64305000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65355000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>65381000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>70283000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>64662000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>60263000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>57701000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>56977000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,169 +4580,173 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E57" s="3">
         <v>627000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>905000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>614000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>565000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>583000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>705000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>585000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>608000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>570000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>844000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>527000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>532000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>590000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>713000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>632000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>617000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>577000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>790000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>580000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>623000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>711000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>814000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>696000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>819000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>944000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1206000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4037000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2283000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2273000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2270000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1021000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1025000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1516000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2511000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2261000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2259000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2757000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1498000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2999000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1999000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2499000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2498000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1999000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2498000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2748000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2747000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2998000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2497000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2747000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
@@ -4620,354 +4754,369 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9305000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7618000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8059000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7539000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7634000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6950000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9389000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7149000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6876000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7796000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7484000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7033000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6290000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6547000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6437000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6345000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6322000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7067000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6789000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7291000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7462000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8074000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7154000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7673000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7338000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8302000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13964000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10528000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11237000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10423000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8558000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11610000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10245000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10214000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9705000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11397000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9509000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10564000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8879000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9759000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9567000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8961000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9397000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10605000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10116000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10912000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10670000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11635000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9597000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8492000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8282000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9218000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21209000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22956000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22957000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22953000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25195000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25183000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25179000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25175000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27914000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27907000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28645000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27792000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21103000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22098000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22094000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22090000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24084000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24080000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24574000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24570000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26062000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26557000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30795000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27515000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>26296000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>26321000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>26346000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6070000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7453000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7768000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8124000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8240000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9424000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10099000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10207000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10146000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10916000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10144000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6106000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6125000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6585000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7124000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6753000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7414000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7269000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6962000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6612000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6647000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7503000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7352000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2296000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2384000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2181000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2050000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41179000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40879000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41931000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41476000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42634000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43153000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46883000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45628000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48281000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48540000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50205000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43433000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37907000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37674000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39102000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38542000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40594000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40886000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42288000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41444000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43683000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>44790000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>49841000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>39817000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>37586000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>37260000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>38090000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15138000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15223000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15687000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15756000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15117000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14986000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16324000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16903000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15392000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14821000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14381000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13709000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14445000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18709000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19388000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17616000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19829000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19326000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19024000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20706000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19825000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19196000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19012000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23689000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21823000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>19564000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>18154000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21158000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20997000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21240000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21081000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20236000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19927000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21069000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21470000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19703000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18952000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18202000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17445000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18027000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22067000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22525000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20604000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22616000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21951000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21387000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22861000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21672000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20591000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20442000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24845000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22677000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20441000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18887000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1010000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1640000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1789000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1144000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>382000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2592000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1522000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1729000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1551000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>360000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2696000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1880000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1975000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2097000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1817000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1538000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2718000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3073000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2702000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3108000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,19 +6609,20 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E83" s="3">
         <v>640000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>528000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>525000</v>
       </c>
       <c r="G83" s="3">
         <v>525000</v>
@@ -6432,73 +6631,76 @@
         <v>525000</v>
       </c>
       <c r="I83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="J83" s="3">
         <v>535000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>523000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>519000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>473000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>427000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>355000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>349000</v>
       </c>
       <c r="P83" s="3">
         <v>349000</v>
       </c>
       <c r="Q83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="R83" s="3">
         <v>350000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>347000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>348000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>359000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>358000</v>
       </c>
       <c r="V83" s="3">
         <v>358000</v>
       </c>
       <c r="W83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="X83" s="3">
         <v>356000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>357000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>397000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>297000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>298000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>294000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>292000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2339000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1743000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2567000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2863000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1802000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1840000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3205000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3253000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2316000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2610000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1916000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2250000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2566000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2580000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2645000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2342000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1577000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2345000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2212000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1573000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2270000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2753000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2694000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3526000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2925000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3539000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-109000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-181000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-157000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-143000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-247000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-156000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-139000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-165000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-181000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-155000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-143000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-203000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-185000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-237000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-248000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-167000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-297000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-220000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-129000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-118000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-338000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-483000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-826000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-375000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-713000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-308000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-278000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-234000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-577000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-271000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-344000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>431000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-111000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2735000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2025000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5241000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4354000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>307000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,94 +7654,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-944000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-969000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-915000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-929000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-920000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-945000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-894000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-900000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-894000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-917000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-858000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-861000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-856000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-874000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-801000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-804000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-800000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-817000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-736000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-742000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-740000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-682000</v>
       </c>
       <c r="Z96" s="3">
         <v>-682000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-680000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-687000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-619000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1101000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1406000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2118000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1003000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-931000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>131000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4124000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-874000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-896000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3347000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2170000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-880000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7860,167 +8109,173 @@
         <v>13000</v>
       </c>
       <c r="E101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F101" s="3">
         <v>75000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-72000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-23000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>41000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>37000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>42000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-55000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-71000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>26000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>46000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>27000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>68000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>768000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-476000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>713000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>443000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>976000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-531000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>828000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6140000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2157000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3371000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1335000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5591000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>55000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2796000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2056000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>3324000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GILD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7051000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6599000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6352000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7389000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7042000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6590000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7244000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7421000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6217000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6423000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7421000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6577000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5143000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5548000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5879000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5604000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5685000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5281000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5795000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5596000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5648000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5088000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5949000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6512000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7141000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6505000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7320000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>7500000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1442000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1401000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1396000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1395000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1442000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1424000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2627000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1223000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1390000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1361000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1398000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1141000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>969000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1683000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1035000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>957000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1570000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1086000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1196000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1001000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1256000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1032000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1126000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>957000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1075000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1129000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5486000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5157000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4951000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5993000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5647000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4818000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5166000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4617000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6198000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4827000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5062000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6023000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5436000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4079000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4579000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4196000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4569000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4685000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4324000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4225000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4510000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4452000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4087000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4693000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5480000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6015000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5548000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6245000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>6371000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,97 +1101,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1643000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1928000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1706000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1597000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1432000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1186000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2027000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1166000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1230000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1117000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1642000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2329000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5823000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1101000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1899000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4990000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1160000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1057000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1950000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>939000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1192000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>937000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1150000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>789000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>864000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>931000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1208000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1141000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,17 +1283,20 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1287,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2700000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1298,11 +1318,11 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>11000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1319,8 +1339,8 @@
       <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1337,8 +1357,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>24</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>24</v>
@@ -1346,8 +1366,8 @@
       <c r="AB14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4428000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4934000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4647000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5122000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4205000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4231000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6393000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6304000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3579000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3971000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3533000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4770000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4576000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8126000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3146000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4786000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7077000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3255000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3044000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4651000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2973000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3368000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2935000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3658000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2887000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2738000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3275000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3101000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1665000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1705000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2267000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2837000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2029000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>197000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>940000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3842000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2246000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2890000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2651000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2001000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2983000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2402000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1093000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1473000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2430000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2237000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1144000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2623000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2280000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2153000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2291000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3812000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4254000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3767000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>4045000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>4399000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1685,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>153000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-175000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-176000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-284000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-111000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>57000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-154000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-173000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-369000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-570000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-940000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>250000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-158000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1051000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>222000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>228000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>367000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>129000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>305000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>72000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>170000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>132000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>150000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>130000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>111000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>140000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3234000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2499000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2170000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2785000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3186000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2270000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>611000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1532000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4211000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2592000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2994000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2508000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1416000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2384000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2593000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2494000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-904000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3006000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2963000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1631000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3286000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2708000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2680000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2820000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4259000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4682000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4172000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4477000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>4817000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>230000</v>
+        <v>232000</v>
       </c>
       <c r="E22" s="3">
         <v>230000</v>
       </c>
       <c r="F22" s="3">
+        <v>230000</v>
+      </c>
+      <c r="G22" s="3">
         <v>226000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>229000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>242000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>238000</v>
       </c>
       <c r="J22" s="3">
         <v>238000</v>
       </c>
       <c r="K22" s="3">
+        <v>238000</v>
+      </c>
+      <c r="L22" s="3">
         <v>250000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>256000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>257000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>267000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>236000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>240000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>241000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>243000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>250000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>248000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>254000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>257000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>264000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>266000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>290000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>297000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>291000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>269000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>261000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>265000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2318000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1588000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2031000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2432000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1503000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-152000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>759000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3438000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1817000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2264000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1814000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>825000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2973000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2003000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1901000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1501000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2410000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2350000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1016000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2664000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2086000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2033000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2126000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3671000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4115000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3617000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3920000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>4276000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E24" s="3">
         <v>549000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>316000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>398000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>646000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>368000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-164000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>383000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>852000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>542000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>270000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>472000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>373000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>465000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-788000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-333000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>535000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>382000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>999000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>565000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>277000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>494000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>470000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>959000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1046000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>918000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>821000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>951000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1039000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>984000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1633000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1786000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1135000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>376000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2586000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1517000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1722000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1544000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>353000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3346000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1538000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2689000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1168000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1875000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1968000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2099000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1809000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1539000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1656000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2712000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3069000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2699000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3099000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3325000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1045000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1010000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1640000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1789000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1144000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>382000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2592000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1522000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1729000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>360000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3339000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2696000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1165000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1880000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1975000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2097000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1807000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1538000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1627000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2718000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3073000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2702000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3108000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2527,8 +2588,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2545,23 +2606,23 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-14000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>10000</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-5492000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-153000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>175000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>176000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>284000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>111000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-57000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>154000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>173000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>369000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>570000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>940000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>158000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1051000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-222000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-228000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-367000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-129000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-305000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-72000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-170000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-132000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-150000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-130000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-111000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-119000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1045000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1010000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1640000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1789000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1144000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>382000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2592000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1522000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1729000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>360000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3339000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1551000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2696000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1165000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1880000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1975000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2097000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1817000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1538000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3865000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2718000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3073000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2702000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3108000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1045000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1010000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1640000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1789000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1144000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>382000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2592000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1522000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1729000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>360000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3339000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1551000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2696000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1165000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1880000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1975000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2097000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1817000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1538000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3865000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2718000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3073000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2702000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3108000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,809 +3355,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5705000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5704000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4936000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5412000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4699000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4739000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4296000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5338000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4362000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4893000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4065000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5997000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12886000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6746000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10051000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11631000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9474000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11240000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16927000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17940000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14569000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13234000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7643000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7588000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11508000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8712000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10285000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8229000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9809000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="E42" s="3">
         <v>963000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>936000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>973000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>961000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>924000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1029000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1182000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1376000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1632000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1601000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1411000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11089000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12168000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10734000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12721000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13382000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15943000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10977000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12149000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13897000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12683000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>16355000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>17922000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>16879000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12384000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3830000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3747000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2458000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4790000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4229000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4162000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4777000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4354000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4118000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3787000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4493000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4566000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4149000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3925000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4892000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3913000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3194000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3907000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3582000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3315000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3396000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3283000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3327000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3465000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3541000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3775000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3851000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4122000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4478000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4034000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4514000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>5075000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1663000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1633000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1576000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1507000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1463000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1494000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1482000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1618000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1676000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1772000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1779000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1683000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1008000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1052000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>986000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>922000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>882000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>884000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>898000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>814000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>816000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>859000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>885000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>801000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1144000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1408000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1474000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1587000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1900000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2663000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1758000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1846000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1774000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2077000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2035000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2141000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2011000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1479000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1908000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2013000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2030000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1272000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1440000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1308000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2264000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1939000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1606000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2171000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2411000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1600000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1661000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1664000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1610000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1801000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3960000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2183000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15980000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14287000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13456000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14443000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13554000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13175000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12629000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14772000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13991000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13925000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13278000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15996000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30926000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24643000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26950000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30296000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28361000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33727000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34024000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35836000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34918000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>32728000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30258000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>31823000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>35317000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>28592000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>21424000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>19588000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>21425000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2380000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2309000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1245000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1282000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1337000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1427000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1309000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1099000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>836000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>579000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>502000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2074000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2276000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3529000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1488000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2195000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3051000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2221000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1423000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2378000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5739000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8104000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11194000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12996000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>15517000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>19902000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>20495000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>19345000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5572000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5540000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5479000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5475000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5349000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5299000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5253000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5121000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5037000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4996000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4990000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5613000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4810000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4653000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4564000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5170000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5037000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4753000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4571000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4006000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3791000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3659000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3415000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3295000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3100000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3012000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2922000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2865000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2714000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35466000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36064000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36662000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37208000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37754000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38199000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38645000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41787000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42232000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42675000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43115000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41234000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17056000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17342000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17619000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17903000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18981000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19269000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19555000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19855000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20431000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20620000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20962000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>21259000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9514000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>9723000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>9933000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>10143000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>10558000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3955000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4066000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3970000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4618000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4860000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5126000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4963000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4739000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5552000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5530000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5062000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6012000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7020000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7079000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6770000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4572000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2410000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2466000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2555000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2787000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2609000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2642000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2712000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3735000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3419000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3520000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4309000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2567000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62373000</v>
+      </c>
+      <c r="E54" s="3">
         <v>62337000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63171000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62557000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62870000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63080000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67952000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67098000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67984000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67492000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68407000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60878000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55934000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59741000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61627000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59146000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63210000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62837000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63675000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>64305000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>65355000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>65381000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>70283000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>64662000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>60263000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>57701000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>56977000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>56609000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,175 +4711,179 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E57" s="3">
         <v>622000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>627000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>905000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>614000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>565000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>583000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>705000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>585000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>608000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>570000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>844000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>527000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>532000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>590000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>713000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>632000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>617000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>577000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>790000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>580000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>623000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>711000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>814000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>696000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>819000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>944000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1206000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1052000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4037000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2283000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2273000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2270000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1021000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1025000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1516000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2511000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2261000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2259000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2757000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1498000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2999000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1999000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2499000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2498000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1999000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2498000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2748000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2747000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2998000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2497000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2747000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1747000</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
@@ -4757,366 +4891,381 @@
         <v>0</v>
       </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9566000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9305000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7618000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8059000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7539000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7634000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6950000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9389000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7149000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6876000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7796000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7484000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7033000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6290000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6547000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6437000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6345000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6322000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7067000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6789000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7291000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7462000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8074000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7154000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7673000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7338000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>8302000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>9321000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11945000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13964000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10528000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11237000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10423000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8558000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11610000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10245000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9705000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11397000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9509000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10564000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8879000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9759000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9567000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8961000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9397000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10605000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10116000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10912000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10670000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11635000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9597000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8492000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8282000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9218000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>11073000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23189000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21209000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22956000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22957000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22953000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25195000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25183000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25179000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25175000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27914000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27907000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28645000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27792000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21103000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22098000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22094000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22090000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24084000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24080000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24574000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24570000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26062000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>26557000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30795000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27515000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>26296000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>26321000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>26346000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>26371000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4997000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6070000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7453000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7768000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8124000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8240000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9424000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10099000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10207000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10146000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10916000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10144000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6106000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6125000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6585000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7124000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6753000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7414000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7269000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6962000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6612000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6647000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7503000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7352000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2296000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2384000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2181000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2050000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1805000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40059000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41179000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40879000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41931000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41476000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42634000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43153000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46883000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45628000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48281000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48540000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50205000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43433000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37907000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37674000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39102000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38542000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40594000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40886000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42288000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41444000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>43683000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>44790000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>49841000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39817000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>37586000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>37260000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>38090000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>39741000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16002000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15138000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15223000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15687000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15756000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15117000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14986000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16324000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16903000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15392000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14821000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14381000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13709000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14445000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18709000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19388000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17616000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19829000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19326000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19024000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20706000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19825000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19196000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19012000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23689000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21823000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>19564000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>18154000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>16654000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22314000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20997000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21240000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21081000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20236000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19927000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21069000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21470000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19703000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18952000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18202000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17445000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18027000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22067000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22525000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20604000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22616000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21951000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21387000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22861000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21672000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20591000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20442000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>24845000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22677000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20441000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18887000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>16868000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1045000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1010000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1640000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1789000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1144000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>382000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2592000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1522000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1729000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>360000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3339000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1551000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2696000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1165000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1880000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1975000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2097000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1817000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1538000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3865000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2718000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3073000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2702000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3108000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>3330000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,22 +6808,23 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E83" s="3">
         <v>681000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>640000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>528000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>525000</v>
       </c>
       <c r="H83" s="3">
         <v>525000</v>
@@ -6634,73 +6833,76 @@
         <v>525000</v>
       </c>
       <c r="J83" s="3">
+        <v>525000</v>
+      </c>
+      <c r="K83" s="3">
         <v>535000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>523000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>519000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>473000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>427000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>355000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>349000</v>
       </c>
       <c r="Q83" s="3">
         <v>349000</v>
       </c>
       <c r="R83" s="3">
+        <v>349000</v>
+      </c>
+      <c r="S83" s="3">
         <v>350000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>347000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>348000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>359000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>358000</v>
       </c>
       <c r="W83" s="3">
         <v>358000</v>
       </c>
       <c r="X83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>356000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>357000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>397000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>297000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>298000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>294000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>292000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1743000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2567000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2863000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1802000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1840000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3205000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3253000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2316000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2610000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1916000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2250000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2566000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1436000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2580000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2645000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2342000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1577000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2345000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2212000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1573000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2270000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2753000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2694000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3526000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2925000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3539000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>4393000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-109000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-181000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-157000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-143000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-247000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-156000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-165000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-181000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-155000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-171000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-203000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-185000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-237000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-248000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-167000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-297000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-212000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-220000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-129000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-123000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-118000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-338000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-396000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-483000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-826000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-375000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-713000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-308000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1070000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-278000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-234000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-577000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2042000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8977000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-271000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5023000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-344000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>431000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2095000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6042000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-111000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2735000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2025000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5241000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>4354000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10016000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2114000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4246000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>307000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2675000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3917000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,97 +7888,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-953000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-944000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-969000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-915000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-929000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-920000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-945000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-894000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-900000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-894000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-917000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-858000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-861000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-856000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-874000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-801000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-804000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-800000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-817000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-736000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-742000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-740000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-753000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-682000</v>
       </c>
       <c r="AA96" s="3">
         <v>-682000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-680000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-687000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-619000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-623000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1519000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1101000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1406000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2118000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1003000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1794000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1942000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3527000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-931000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2477000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>131000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4124000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-874000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2611000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-896000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2515000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1857000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2366000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1670000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2901000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6595000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3347000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2170000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-880000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1244000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2295000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2860000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13000</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
         <v>13000</v>
       </c>
       <c r="F101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G101" s="3">
         <v>75000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-72000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-23000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>41000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>37000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-61000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>42000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-55000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>46000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>27000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>68000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>768000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-476000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>713000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>443000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>976000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-531000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>828000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6889000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6140000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3305000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2157000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1766000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5687000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1013000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3371000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1335000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5591000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>55000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3920000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2796000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1573000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2056000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1580000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>3324000</v>
       </c>
     </row>
